--- a/public/preprocessing/@jokowi.xlsx
+++ b/public/preprocessing/@jokowi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>21470</v>
+        <v>31241</v>
       </c>
       <c r="C2" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>sekali lagi prioritas pemerintah jelas keselamatan dan kesehatan masyarakat adalah yang utama untuk itu pemer</t>
+          <t>singgah di satu toko kerajinan di ubud siang ini saya sempat bertemu pemilik galeri saya ingin tahu bagaimana da</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['sekali', 'lagi', 'prioritas', 'pemerintah', 'jelas', 'keselamatan', 'dan', 'kesehatan', 'masyarakat', 'adalah', 'yang', 'utama', 'untuk', 'itu', 'pemer']</t>
+          <t>['singgah', 'di', 'satu', 'toko', 'kerajinan', 'di', 'ubud', 'siang', 'ini', 'saya', 'sempat', 'bertemu', 'pemilik', 'galeri', 'saya', 'ingin', 'tahu', 'bagaimana', 'da']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['singgah', 'di', 'satu', 'toko', 'kerajinan', 'di', 'ubud', 'siang', 'ini', 'saya', 'sempat', 'bertemu', 'pemilik', 'galeri', 'saya', 'ingin', 'tahu', 'bagaimana', 'dan']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['prioritas', 'pemerintah', 'keselamatan', 'kesehatan', 'masyarakat', 'utama', 'pemer']</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['prioritas', 'perintah', 'selamat', 'sehat', 'masyarakat', 'utama', 'per']</t>
+          <t>['singgah', 'toko', 'kerajinan', 'ubud', 'siang', 'bertemu', 'pemilik', 'galeri']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['singgah', 'toko', 'rajin', 'ubud', 'siang', 'temu', 'milik', 'galeri']</t>
         </is>
       </c>
     </row>
@@ -511,34 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21471</v>
+        <v>31242</v>
       </c>
       <c r="C3" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>jumlah vaksin semakin meningkat seiring dengan komitmen dari berbagai produsen seluruhnya untuk program vaksinasi</t>
+          <t>vaksinasi massal covid digelar bagi para pelaku industri pariwisata pemuka agama budayawan pemuda dan masyar</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['jumlah', 'vaksin', 'semakin', 'meningkat', 'seiring', 'dengan', 'komitmen', 'dari', 'berbagai', 'produsen', 'seluruhnya', 'untuk', 'program', 'vaksinasi']</t>
+          <t>['vaksinasi', 'massal', 'covid', 'digelar', 'bagi', 'para', 'pelaku', 'industri', 'pariwisata', 'pemuka', 'agama', 'budayawan', 'pemuda', 'dan', 'masyar']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['vaksinasi', 'massal', 'covid', 'digelar', 'bagi', 'para', 'pelaku', 'industri', 'pariwisata', 'pemuka', 'agama', 'budayawan', 'pemuda', 'dan', 'masyar']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['vaksin', 'meningkat', 'seiring', 'komitmen', 'produsen', 'program', 'vaksinasi']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['vaksin', 'tingkat', 'iring', 'komitmen', 'produsen', 'program', 'vaksinasi']</t>
+          <t>['vaksinasi', 'massal', 'covid', 'digelar', 'pelaku', 'industri', 'pariwisata', 'pemuka', 'agama', 'budayawan', 'pemuda', 'masyar']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['vaksinasi', 'massal', 'covid', 'gelar', 'laku', 'industri', 'pariwisata', 'muka', 'agama', 'budayawan', 'pemuda', 'masyar']</t>
         </is>
       </c>
     </row>
@@ -547,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>21472</v>
+        <v>31243</v>
       </c>
       <c r="C4" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>berkat pendekatan sejak jauhjauh hari kepada perusahaan farmasi global produsen vaksin covid kini indonesia te</t>
+          <t>saya bertolak menuju bali pagi ini untuk kunjungan sehari ke gianyar dan denpasar di sana saya hendak meninjau</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['berkat', 'pendekatan', 'sejak', 'jauhjauh', 'hari', 'kepada', 'perusahaan', 'farmasi', 'global', 'produsen', 'vaksin', 'covid', 'kini', 'indonesia', 'te']</t>
+          <t>['saya', 'bertolak', 'menuju', 'bali', 'pagi', 'ini', 'untuk', 'kunjungan', 'sehari', 'ke', 'gianyar', 'dan', 'denpasar', 'di', 'sana', 'saya', 'hendak', 'meninjau']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['saya', 'bertolak', 'menuju', 'bali', 'pagi', 'ini', 'untuk', 'kunjungan', 'sehari', 'ke', 'gianyar', 'dan', 'denpasar', 'di', 'sana', 'saya', 'hendak', 'meninjau']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['berkat', 'pendekatan', 'jauhjauh', 'perusahaan', 'farmasi', 'global', 'produsen', 'vaksin', 'covid', 'indonesia', 'te']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['berkat', 'dekat', 'jauhjauh', 'usaha', 'farmasi', 'global', 'produsen', 'vaksin', 'covid', 'indonesia', 'te']</t>
+          <t>['bertolak', 'bali', 'pagi', 'kunjungan', 'sehari', 'gianyar', 'denpasar', 'meninjau']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['tolak', 'bal', 'pagi', 'kunjung', 'hari', 'gianyar', 'denpasar', 'tinjau']</t>
         </is>
       </c>
     </row>
@@ -583,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>21473</v>
+        <v>31244</v>
       </c>
       <c r="C5" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>saya bergembira dapat hadir dan meresmikan kampus baru universitas sultan ageng tirtayasa untirta di sindangsari</t>
+          <t xml:space="preserve">undangundang dasar telah mengatur masa jabatan presiden paling lama dua periode mari kita patuhi bersama </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['saya', 'bergembira', 'dapat', 'hadir', 'dan', 'meresmikan', 'kampus', 'baru', 'universitas', 'sultan', 'ageng', 'tirtayasa', 'untirta', 'di', 'sindangsari']</t>
+          <t>['undangundang', 'dasar', 'telah', 'mengatur', 'masa', 'jabatan', 'presiden', 'paling', 'lama', 'dua', 'periode', 'mari', 'kita', 'patuhi', 'bersama']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>['undangundang', 'dasar', 'telah', 'mengatur', 'masa', 'jabatan', 'presiden', 'paling', 'lama', 'dua', 'periode', 'mari', 'kita', 'patuhi', 'bersama']</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>['bergembira', 'hadir', 'meresmikan', 'kampus', 'universitas', 'sultan', 'ageng', 'tirtayasa', 'untirta', 'sindangsari']</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['gembira', 'hadir', 'resmi', 'kampus', 'universitas', 'sultan', 'ageng', 'tirtayasa', 'untirta', 'sindangsari']</t>
+          <t>['undangundang', 'dasar', 'mengatur', 'jabatan', 'presiden', 'periode', 'mari', 'patuhi']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['undangundang', 'dasar', 'atur', 'jabat', 'presiden', 'periode', 'mari', 'patuh']</t>
         </is>
       </c>
     </row>
@@ -619,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>21474</v>
+        <v>31245</v>
       </c>
       <c r="C6" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>bendungan sindangheula juga akan mengurangi potensi banjir sungai ciujung dan cidurian dan untuk pembangkit listri</t>
+          <t>sebagai presiden yang dipilih langsung oleh rakyat berdasarkan konstitusi maka sikap saya terhadap konstitusi yang</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['bendungan', 'sindangheula', 'juga', 'akan', 'mengurangi', 'potensi', 'banjir', 'sungai', 'ciujung', 'dan', 'cidurian', 'dan', 'untuk', 'pembangkit', 'listri']</t>
+          <t>['sebagai', 'presiden', 'yang', 'dipilih', 'langsung', 'oleh', 'rakyat', 'berdasarkan', 'konstitusi', 'maka', 'sikap', 'saya', 'terhadap', 'konstitusi', 'yang']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['sebagai', 'presiden', 'yang', 'dipilih', 'langsung', 'oleh', 'rakyat', 'berdasarkan', 'konstitusi', 'maka', 'sikap', 'saya', 'terhadap', 'konstitusi', 'yang']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['bendungan', 'sindangheula', 'mengurangi', 'potensi', 'banjir', 'sungai', 'ciujung', 'cidurian', 'pembangkit', 'listri']</t>
+          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['bendung', 'sindangheula', 'kurang', 'potensi', 'banjir', 'sungai', 'ciujung', 'cidurian', 'bangkit', 'listri']</t>
+          <t>['presiden', 'dipilih', 'langsung', 'rakyat', 'berdasarkan', 'konstitusi', 'sikap', 'konstitusi']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['presiden', 'pilih', 'langsung', 'rakyat', 'dasar', 'konstitusi', 'sikap', 'konstitusi']</t>
         </is>
       </c>
     </row>
@@ -655,34 +685,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>21475</v>
+        <v>31246</v>
       </c>
       <c r="C7" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>saya meresmikan bendungan sindangheula di kab serang banten siang tadi bendungan berkapasitas juta  air</t>
+          <t>empat dari tujuh venue olahraga untuk penyelenggaraan pon xx di papua ini telah selesai saya telah menginstruksik</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['saya', 'meresmikan', 'bendungan', 'sindangheula', 'di', 'kab', 'serang', 'banten', 'siang', 'tadi', 'bendungan', 'berkapasitas', 'juta', 'air']</t>
+          <t>['empat', 'dari', 'tujuh', 'venue', 'olahraga', 'untuk', 'penyelenggaraan', 'pon', 'xx', 'di', 'papua', 'ini', 'telah', 'selesai', 'saya', 'telah', 'menginstruksik']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['empat', 'dari', 'tujuh', 'tempat', 'olahraga', 'untuk', 'penyelenggaraan', 'pon', 'xx', 'di', 'papua', 'ini', 'telah', 'selesai', 'saya', 'telah', 'menginstruksik']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['meresmikan', 'bendungan', 'sindangheula', 'kab', 'serang', 'banten', 'siang', 'bendungan', 'berkapasitas', 'juta', 'air']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['resmi', 'bendung', 'sindangheula', 'kab', 'serang', 'banten', 'siang', 'bendung', 'kapasitas', 'juta', 'air']</t>
+          <t>['tujuh', 'olahraga', 'penyelenggaraan', 'pon', 'xx', 'papua', 'selesai', 'menginstruksik']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['tujuh', 'olahraga', 'selenggara', 'pon', 'xx', 'papua', 'selesai', 'menginstruksik']</t>
         </is>
       </c>
     </row>
@@ -691,34 +726,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>21476</v>
+        <v>31247</v>
       </c>
       <c r="C8" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">dari helipad di monumen nasional jakarta siang ini saya bertolak menuju provinsi banten dengan helikopter di </t>
+          <t>dalam hening dan sepi kita menyelam ke lubuk hati merenungkan karunia hidup dari sang pencipta maka meluruhlah</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['dari', 'helipad', 'di', 'monumen', 'nasional', 'jakarta', 'siang', 'ini', 'saya', 'bertolak', 'menuju', 'provinsi', 'banten', 'dengan', 'helikopter', 'di']</t>
+          <t>['dalam', 'hening', 'dan', 'sepi', 'kita', 'menyelam', 'ke', 'lubuk', 'hati', 'merenungkan', 'karunia', 'hidup', 'dari', 'sang', 'pencipta', 'maka', 'meluruhlah']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['dalam', 'hening', 'dan', 'sepi', 'kita', 'menyelam', 'ke', 'lubuk', 'hati', 'merenungkan', 'karunia', 'hidup', 'dari', 'sang', 'pencipta', 'maka', 'meluruhlah']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['helipad', 'monumen', 'nasional', 'jakarta', 'siang', 'bertolak', 'provinsi', 'banten', 'helikopter']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['helipad', 'monumen', 'nasional', 'jakarta', 'siang', 'tolak', 'provinsi', 'banten', 'helikopter']</t>
+          <t>['hening', 'sepi', 'menyelam', 'lubuk', 'hati', 'merenungkan', 'karunia', 'hidup', 'sang', 'pencipta', 'meluruhlah']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['hening', 'sepi', 'selam', 'lubuk', 'hati', 'renung', 'karunia', 'hidup', 'sang', 'cipta', 'luruh']</t>
         </is>
       </c>
     </row>
@@ -727,34 +767,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>21477</v>
+        <v>31248</v>
       </c>
       <c r="C9" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>pertumbuhan ekonomi indonesia jatuh di minus persen namun kinerja perdagangan luar negeri kita tahun</t>
+          <t>perjalanan agung nabi muhammad saw dari masjidil haram ke masjidil aqsa lalu ke langit ketujuh mengingatkan kita</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['pertumbuhan', 'ekonomi', 'indonesia', 'jatuh', 'di', 'minus', 'persen', 'namun', 'kinerja', 'perdagangan', 'luar', 'negeri', 'kita', 'tahun']</t>
+          <t>['perjalanan', 'agung', 'nabi', 'muhammad', 'saw', 'dari', 'masjidil', 'haram', 'ke', 'masjidil', 'aqsa', 'lalu', 'ke', 'langit', 'ketujuh', 'mengingatkan', 'kita']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['perjalanan', 'agung', 'nabi', 'muhammad', 'saw', 'dari', 'masjidil', 'haram', 'ke', 'masjidil', 'aqsa', 'lalu', 'ke', 'langit', 'ketujuh', 'mengingatkan', 'kita']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['pertumbuhan', 'ekonomi', 'indonesia', 'jatuh', 'minus', 'persen', 'kinerja', 'perdagangan', 'negeri']</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['tumbuh', 'ekonomi', 'indonesia', 'jatuh', 'minus', 'persen', 'kerja', 'dagang', 'negeri']</t>
+          <t>['perjalanan', 'agung', 'nabi', 'muhammad', 'saw', 'masjidil', 'haram', 'masjidil', 'aqsa', 'langit', 'ketujuh']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['jalan', 'agung', 'nabi', 'muhammad', 'saw', 'masjidil', 'haram', 'masjidil', 'aqsa', 'langit', 'tujuh']</t>
         </is>
       </c>
     </row>
@@ -763,34 +808,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>21478</v>
+        <v>31249</v>
       </c>
       <c r="C10" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">saya mengajak anda semua para wajib pajak jangan sampai terlambat pajak yang kita bayarkan sangat dibutuhkan </t>
+          <t>kita harapkan vaksinasi seperti ini segera diikuti daerahdaerah lain jadi semakin hari semakin banyak warga kita</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['saya', 'mengajak', 'anda', 'semua', 'para', 'wajib', 'pajak', 'jangan', 'sampai', 'terlambat', 'pajak', 'yang', 'kita', 'bayarkan', 'sangat', 'dibutuhkan']</t>
+          <t>['kita', 'harapkan', 'vaksinasi', 'seperti', 'ini', 'segera', 'diikuti', 'daerahdaerah', 'lain', 'jadi', 'semakin', 'hari', 'semakin', 'banyak', 'warga', 'kita']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['kita', 'harapkan', 'vaksinasi', 'seperti', 'ini', 'segera', 'diikuti', 'daerahdaerah', 'lain', 'jadi', 'semakin', 'hari', 'semakin', 'banyak', 'warga', 'kita']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['mengajak', 'wajib', 'pajak', 'terlambat', 'pajak', 'bayarkan', 'dibutuhkan']</t>
+          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['ajak', 'wajib', 'pajak', 'lambat', 'pajak', 'bayar', 'butuh']</t>
+          <t>['harapkan', 'vaksinasi', 'diikuti', 'daerahdaerah', 'warga']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['harap', 'vaksinasi', 'ikut', 'daerahdaerah', 'warga']</t>
         </is>
       </c>
     </row>
@@ -799,34 +849,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>21479</v>
+        <v>31250</v>
       </c>
       <c r="C11" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>sudah lima tahun ini saya lapor pajak tanpa perlu datang ke kantor pajak caranya online melalui efilling hari</t>
+          <t xml:space="preserve">vaksinasi massal bagi para ulama tokoh agama dan santri di semarang siang ini di antara lebih penerima </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['sudah', 'lima', 'tahun', 'ini', 'saya', 'lapor', 'pajak', 'tanpa', 'perlu', 'datang', 'ke', 'kantor', 'pajak', 'caranya', 'online', 'melalui', 'efilling', 'hari']</t>
+          <t>['vaksinasi', 'massal', 'bagi', 'para', 'ulama', 'tokoh', 'agama', 'dan', 'santri', 'di', 'semarang', 'siang', 'ini', 'di', 'antara', 'lebih', 'penerima']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['vaksinasi', 'massal', 'bagi', 'para', 'ulama', 'tokoh', 'agama', 'dan', 'santri', 'di', 'semarang', 'siang', 'ini', 'di', 'antara', 'lebih', 'penerima']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['lapor', 'pajak', 'kantor', 'pajak', 'online', 'efilling']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['lapor', 'pajak', 'kantor', 'pajak', 'online', 'efilling']</t>
+          <t>['vaksinasi', 'massal', 'ulama', 'tokoh', 'agama', 'santri', 'semarang', 'siang', 'penerima']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['vaksinasi', 'massal', 'ulama', 'tokoh', 'agama', 'santri', 'semarang', 'siang', 'terima']</t>
         </is>
       </c>
     </row>
@@ -835,34 +890,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>21480</v>
+        <v>31251</v>
       </c>
       <c r="C12" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>bencana alam dan nonalam berupa pandemi telah memberi indonesia pelajaran yang luar biasa bencana berskala global</t>
+          <t>gatotkaca yang sakti hari ini divaksinasi di padepokan seni bagong kussudiardja di pedukuhan kembaran bantul me</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['bencana', 'alam', 'dan', 'nonalam', 'berupa', 'pandemi', 'telah', 'memberi', 'indonesia', 'pelajaran', 'yang', 'luar', 'biasa', 'bencana', 'berskala', 'global']</t>
+          <t>['gatotkaca', 'yang', 'sakti', 'hari', 'ini', 'divaksinasi', 'di', 'padepokan', 'seni', 'bagong', 'kussudiardja', 'di', 'pedukuhan', 'kembaran', 'bantul', 'me']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>['gatotkaca', 'yang', 'sakti', 'hari', 'ini', 'divaksinasi', 'di', 'padepokan', 'seni', 'bagong', 'kussudiardja', 'di', 'pedukuhan', 'kembaran', 'bantul', 'me']</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>['bencana', 'alam', 'nonalam', 'pandemi', 'indonesia', 'pelajaran', 'bencana', 'berskala', 'global']</t>
-        </is>
-      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['bencana', 'alam', 'nonalam', 'pandemi', 'indonesia', 'ajar', 'bencana', 'skala', 'global']</t>
+          <t>['gatotkaca', 'sakti', 'divaksinasi', 'padepokan', 'seni', 'bagong', 'kussudiardja', 'pedukuhan', 'kembaran', 'bantul', 'me']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['gatotkaca', 'sakti', 'vaksinasi', 'padepokan', 'seni', 'bagong', 'kussudiardja', 'dukuh', 'kembar', 'bantul', 'me']</t>
         </is>
       </c>
     </row>
@@ -871,34 +931,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>21481</v>
+        <v>31252</v>
       </c>
       <c r="C13" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>dalam setahun ini bnpb mencatat ada bencana di indonesia dari bencana hidrometeorologi hingga geologi kar</t>
+          <t>hari ini saya berkunjung ke yogyakarta dan semarang untuk meninjau pelaksanaan vaksinasi massal covid di yogy</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['dalam', 'setahun', 'ini', 'bnpb', 'mencatat', 'ada', 'bencana', 'di', 'indonesia', 'dari', 'bencana', 'hidrometeorologi', 'hingga', 'geologi', 'kar']</t>
+          <t>['hari', 'ini', 'saya', 'berkunjung', 'ke', 'yogyakarta', 'dan', 'semarang', 'untuk', 'meninjau', 'pelaksanaan', 'vaksinasi', 'massal', 'covid', 'di', 'yogy']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['hari', 'ini', 'saya', 'berkunjung', 'ke', 'yogyakarta', 'dan', 'semarang', 'untuk', 'meninjau', 'pelaksanaan', 'vaksinasi', 'massal', 'covid', 'di', 'yogy']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['setahun', 'bnpb', 'mencatat', 'bencana', 'indonesia', 'bencana', 'hidrometeorologi', 'geologi', 'kar']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['tahun', 'bnpb', 'catat', 'bencana', 'indonesia', 'bencana', 'hidrometeorologi', 'geologi', 'kar']</t>
+          <t>['berkunjung', 'yogyakarta', 'semarang', 'meninjau', 'pelaksanaan', 'vaksinasi', 'massal', 'covid', 'yogy']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['kunjung', 'yogyakarta', 'semarang', 'tinjau', 'laksana', 'vaksinasi', 'massal', 'covid', 'yogy']</t>
         </is>
       </c>
     </row>
@@ -907,34 +972,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>21482</v>
+        <v>31253</v>
       </c>
       <c r="C14" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>sebanyak juta dosis bahan baku vaksin covid tiba di tanah air siang tadi untuk selanjutnya diolah dan dipro</t>
+          <t>sebuah pesawat klm tiba di bandara soekarnohatta kemarin sore membawa juta dosis vaksin siap pakai astrazene</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['sebanyak', 'juta', 'dosis', 'bahan', 'baku', 'vaksin', 'covid', 'tiba', 'di', 'tanah', 'air', 'siang', 'tadi', 'untuk', 'selanjutnya', 'diolah', 'dan', 'dipro']</t>
+          <t>['sebuah', 'pesawat', 'klm', 'tiba', 'di', 'bandara', 'soekarnohatta', 'kemarin', 'sore', 'membawa', 'juta', 'dosis', 'vaksin', 'siap', 'pakai', 'astrazene']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['sebuah', 'pesawat', 'kalem', 'tiba', 'di', 'bandara', 'soekarnohatta', 'kemarin', 'sore', 'membawa', 'juta', 'dosis', 'vaksin', 'siap', 'pakai', 'astrazene']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['juta', 'dosis', 'bahan', 'baku', 'vaksin', 'covid', 'tanah', 'air', 'siang', 'diolah', 'dipro']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['juta', 'dosis', 'bahan', 'baku', 'vaksin', 'covid', 'tanah', 'air', 'siang', 'olah', 'pro']</t>
+          <t>['pesawat', 'kalem', 'bandara', 'soekarnohatta', 'kemarin', 'sore', 'membawa', 'juta', 'dosis', 'vaksin', 'pakai', 'astrazene']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['pesawat', 'kalem', 'bandara', 'soekarnohatta', 'kemarin', 'sore', 'bawa', 'juta', 'dosis', 'vaksin', 'pakai', 'astrazene']</t>
         </is>
       </c>
     </row>
@@ -943,34 +1013,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>21483</v>
+        <v>31254</v>
       </c>
       <c r="C15" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>saya telah menerima masukan dari mui nu muhammadiyah ormasormas lain dll mengenai lampiran perpres tentang bid</t>
+          <t>tak ada pertunjukan tur sampai festival musik dalam satu tahun ini tapi saya tahu pemusikpemusik indonesia tak</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['saya', 'telah', 'menerima', 'masukan', 'dari', 'mui', 'nu', 'muhammadiyah', 'ormasormas', 'lain', 'dll', 'mengenai', 'lampiran', 'perpres', 'tentang', 'bid']</t>
+          <t>['tak', 'ada', 'pertunjukan', 'tur', 'sampai', 'festival', 'musik', 'dalam', 'satu', 'tahun', 'ini', 'tapi', 'saya', 'tahu', 'pemusikpemusik', 'indonesia', 'tak']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['tak', 'ada', 'pertunjukan', 'tur', 'sampai', 'festival', 'musik', 'dalam', 'satu', 'tahun', 'ini', 'tapi', 'saya', 'tahu', 'pemusikpemusik', 'indonesia', 'tak']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['menerima', 'masukan', 'mui', 'nu', 'muhammadiyah', 'ormasormas', 'dll', 'lampiran', 'perpres', 'bid']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['terima', 'masuk', 'mui', 'nu', 'muhammadiyah', 'ormasormas', 'dll', 'lampir', 'pres', 'bid']</t>
+          <t>['pertunjukan', 'tur', 'festival', 'musik', 'pemusikpemusik', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['tunjuk', 'tur', 'festival', 'musik', 'pemusikpemusik', 'indonesia']</t>
         </is>
       </c>
     </row>
@@ -979,34 +1054,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>21484</v>
+        <v>31255</v>
       </c>
       <c r="C16" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>selamat pagi harihari ini pemerintah menggelar vaksinasi massal tahap kedua untuk juta pelayan dan pekerja</t>
+          <t>bppt harus mampu memiliki jejaring luas dan menjadi lembaga akuisisi teknologi maju dari manapun selama belum bisa</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['selamat', 'pagi', 'harihari', 'ini', 'pemerintah', 'menggelar', 'vaksinasi', 'massal', 'tahap', 'kedua', 'untuk', 'juta', 'pelayan', 'dan', 'pekerja']</t>
+          <t>['bppt', 'harus', 'mampu', 'memiliki', 'jejaring', 'luas', 'dan', 'menjadi', 'lembaga', 'akuisisi', 'teknologi', 'maju', 'dari', 'manapun', 'selama', 'belum', 'bisa']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['bppt', 'harus', 'mampu', 'memiliki', 'jejaring', 'luas', 'dan', 'menjadi', 'lembaga', 'akuisisi', 'teknologi', 'maju', 'dari', 'manapun', 'selama', 'belum', 'bisa']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['selamat', 'pagi', 'harihari', 'pemerintah', 'menggelar', 'vaksinasi', 'massal', 'tahap', 'juta', 'pelayan', 'pekerja']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['selamat', 'pagi', 'harihari', 'perintah', 'gelar', 'vaksinasi', 'massal', 'tahap', 'juta', 'layan', 'kerja']</t>
+          <t>['bppt', 'memiliki', 'jejaring', 'luas', 'lembaga', 'akuisisi', 'teknologi', 'maju', 'manapun']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['bppt', 'milik', 'jejaring', 'luas', 'lembaga', 'akuisisi', 'teknologi', 'maju', 'mana']</t>
         </is>
       </c>
     </row>
@@ -1015,34 +1095,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>21485</v>
+        <v>31256</v>
       </c>
       <c r="C17" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>anda yang dari yogyakarta ke solo atau sebaliknya kini punya pilihan moda transportasi ramah lingkungan krl linta</t>
+          <t>selama pandemi ini misalnya akselerasi inovasi bisa kita lihat di bidang kesehatan seperti ventilator untuk perawa</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['anda', 'yang', 'dari', 'yogyakarta', 'ke', 'solo', 'atau', 'sebaliknya', 'kini', 'punya', 'pilihan', 'moda', 'transportasi', 'ramah', 'lingkungan', 'krl', 'linta']</t>
+          <t>['selama', 'pandemi', 'ini', 'misalnya', 'akselerasi', 'inovasi', 'bisa', 'kita', 'lihat', 'di', 'bidang', 'kesehatan', 'seperti', 'ventilator', 'untuk', 'perawa']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['selama', 'pandemi', 'ini', 'misalnya', 'akselerasi', 'inovasi', 'bisa', 'kita', 'lihat', 'di', 'bidang', 'kesehatan', 'seperti', 'ventilator', 'untuk', 'perawa']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['yogyakarta', 'solo', 'pilihan', 'moda', 'transportasi', 'ramah', 'lingkungan', 'krl', 'linta']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['yogyakarta', 'solo', 'pilih', 'moda', 'transportasi', 'ramah', 'lingkung', 'krl', 'linta']</t>
+          <t>['pandemi', 'akselerasi', 'inovasi', 'lihat', 'bidang', 'kesehatan', 'ventilator', 'perawa']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['pandemi', 'akselerasi', 'inovasi', 'lihat', 'bidang', 'sehat', 'ventilator', 'awa']</t>
         </is>
       </c>
     </row>
@@ -1051,34 +1136,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>21486</v>
+        <v>31257</v>
       </c>
       <c r="C18" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>para pedagang pasar beringharjo pedagang kaki lima pengayuh becak sampai kusir andong malioboro di yogyakarta mu</t>
+          <t>bppt harus aktif berburu inovasi dan teknologi untuk dikembangkan lebih lanjut dan diterapkan ada ribuan penelit</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['para', 'pedagang', 'pasar', 'beringharjo', 'pedagang', 'kaki', 'lima', 'pengayuh', 'becak', 'sampai', 'kusir', 'andong', 'malioboro', 'di', 'yogyakarta', 'mu']</t>
+          <t>['bppt', 'harus', 'aktif', 'berburu', 'inovasi', 'dan', 'teknologi', 'untuk', 'dikembangkan', 'lebih', 'lanjut', 'dan', 'diterapkan', 'ada', 'ribuan', 'penelit']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>['bppt', 'harus', 'aktif', 'berburu', 'inovasi', 'dan', 'teknologi', 'untuk', 'dikembangkan', 'lebih', 'lanjut', 'dan', 'diterapkan', 'ada', 'ribuan', 'penelit']</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>['pedagang', 'pasar', 'beringharjo', 'pedagang', 'kaki', 'pengayuh', 'becak', 'kusir', 'andong', 'malioboro', 'yogyakarta', 'mu']</t>
-        </is>
-      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['dagang', 'pasar', 'beringharjo', 'dagang', 'kaki', 'kayuh', 'becak', 'kusir', 'andong', 'malioboro', 'yogyakarta', 'mu']</t>
+          <t>['bppt', 'aktif', 'berburu', 'inovasi', 'teknologi', 'dikembangkan', 'diterapkan', 'ribuan', 'penelit']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['bppt', 'aktif', 'buru', 'inovasi', 'teknologi', 'kembang', 'terap', 'ribu', 'penelit']</t>
         </is>
       </c>
     </row>
@@ -1087,34 +1177,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>21487</v>
+        <v>31258</v>
       </c>
       <c r="C19" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>innalillahi wa inna ilaihi rajiun kita kehilangan seorang putra terbaik bangsa seorang yang hidupnya diabdikan un</t>
+          <t>di dunia yang kian terbuka dan modern setiap orang lakilaki atau perempuan punya kesempatan yang sama untuk men</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'kita', 'kehilangan', 'seorang', 'putra', 'terbaik', 'bangsa', 'seorang', 'yang', 'hidupnya', 'diabdikan', 'un']</t>
+          <t>['di', 'dunia', 'yang', 'kian', 'terbuka', 'dan', 'modern', 'setiap', 'orang', 'lakilaki', 'atau', 'perempuan', 'punya', 'kesempatan', 'yang', 'sama', 'untuk', 'men']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['di', 'dunia', 'yang', 'kian', 'terbuka', 'dan', 'modern', 'setiap', 'orang', 'lakilaki', 'atau', 'perempuan', 'punya', 'kesempatan', 'yang', 'sama', 'untuk', 'men']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'kehilangan', 'putra', 'terbaik', 'bangsa', 'hidupnya', 'diabdikan', 'un']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'hilang', 'putra', 'baik', 'bangsa', 'hidup', 'abdi', 'un']</t>
+          <t>['dunia', 'kian', 'terbuka', 'modern', 'orang', 'lakilaki', 'perempuan', 'kesempatan', 'men']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['dunia', 'kian', 'buka', 'modern', 'orang', 'lakilaki', 'perempuan', 'sempat', 'men']</t>
         </is>
       </c>
     </row>
@@ -1123,34 +1218,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>21488</v>
+        <v>31259</v>
       </c>
       <c r="C20" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>sore ini saya ke yogyakarta untuk kunjungan kerja esok hari saya hendak meninjau vaksinasi massal bagi para peke</t>
+          <t>vaksin covid ini telah melalui perjalanan panjang untuk sampai ke kita sudah melewati tahapan penelitian pengu</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['sore', 'ini', 'saya', 'ke', 'yogyakarta', 'untuk', 'kunjungan', 'kerja', 'esok', 'hari', 'saya', 'hendak', 'meninjau', 'vaksinasi', 'massal', 'bagi', 'para', 'peke']</t>
+          <t>['vaksin', 'covid', 'ini', 'telah', 'melalui', 'perjalanan', 'panjang', 'untuk', 'sampai', 'ke', 'kita', 'sudah', 'melewati', 'tahapan', 'penelitian', 'pengu']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['vaksin', 'covid', 'ini', 'telah', 'melalui', 'perjalanan', 'panjang', 'untuk', 'sampai', 'ke', 'kita', 'sudah', 'melewati', 'tahapan', 'penelitian', 'pengu']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['sore', 'yogyakarta', 'kunjungan', 'kerja', 'esok', 'meninjau', 'vaksinasi', 'massal', 'peke']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['sore', 'yogyakarta', 'kunjung', 'kerja', 'esok', 'tinjau', 'vaksinasi', 'massal', 'peke']</t>
+          <t>['vaksin', 'covid', 'perjalanan', 'melewati', 'tahapan', 'penelitian', 'pengu']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['vaksin', 'covid', 'jalan', 'lewat', 'tahap', 'teliti', 'pengu']</t>
         </is>
       </c>
     </row>
@@ -1159,34 +1259,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>21489</v>
+        <v>31260</v>
       </c>
       <c r="C21" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>dunia yang kian bergerak ke arah digital kita hadapi dengan membangun infrastruktur untuk konektivitas digital di</t>
+          <t>bendungan sindangheula di serang banten yang dibangun sejak telah selesai dan saya resmikan kemarin bend</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['dunia', 'yang', 'kian', 'bergerak', 'ke', 'arah', 'digital', 'kita', 'hadapi', 'dengan', 'membangun', 'infrastruktur', 'untuk', 'konektivitas', 'digital', 'di']</t>
+          <t>['bendungan', 'sindangheula', 'di', 'serang', 'banten', 'yang', 'dibangun', 'sejak', 'telah', 'selesai', 'dan', 'saya', 'resmikan', 'kemarin', 'bend']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['bendungan', 'sindangheula', 'di', 'serang', 'banten', 'yang', 'dibangun', 'sejak', 'telah', 'selesai', 'dan', 'saya', 'resmikan', 'kemarin', 'bend']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['dunia', 'kian', 'bergerak', 'arah', 'digital', 'hadapi', 'membangun', 'infrastruktur', 'konektivitas', 'digital']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['dunia', 'kian', 'gerak', 'arah', 'digital', 'hadap', 'bangun', 'infrastruktur', 'konektivitas', 'digital']</t>
+          <t>['bendungan', 'sindangheula', 'serang', 'banten', 'dibangun', 'selesai', 'resmikan', 'kemarin', 'bend']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['bendung', 'sindangheula', 'serang', 'banten', 'bangun', 'selesai', 'resmi', 'kemarin', 'bend']</t>
         </is>
       </c>
     </row>
@@ -1195,34 +1300,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>21490</v>
+        <v>31261</v>
       </c>
       <c r="C22" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>upaya mewujudkan konektivitas digital di indonesia itu bukan untuk kepentingan ekonomi sematamata tapi untuk memp</t>
+          <t>di ruangruang laboratorium dan ruang produksi bio farma harihari ini para ilmuwan berkejaran dengan waktu mengo</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['upaya', 'mewujudkan', 'konektivitas', 'digital', 'di', 'indonesia', 'itu', 'bukan', 'untuk', 'kepentingan', 'ekonomi', 'sematamata', 'tapi', 'untuk', 'memp']</t>
+          <t>['di', 'ruangruang', 'laboratorium', 'dan', 'ruang', 'produksi', 'bio', 'farma', 'harihari', 'ini', 'para', 'ilmuwan', 'berkejaran', 'dengan', 'waktu', 'mengo']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['di', 'ruangruang', 'laboratorium', 'dan', 'ruang', 'produksi', 'bio', 'farma', 'harihari', 'ini', 'para', 'ilmuwan', 'berkejaran', 'dengan', 'waktu', 'mengo']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['upaya', 'mewujudkan', 'konektivitas', 'digital', 'indonesia', 'kepentingan', 'ekonomi', 'sematamata', 'memp']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['upaya', 'wujud', 'konektivitas', 'digital', 'indonesia', 'penting', 'ekonomi', 'sematamata', 'memp']</t>
+          <t>['ruangruang', 'laboratorium', 'ruang', 'produksi', 'bio', 'farma', 'harihari', 'ilmuwan', 'berkejaran', 'mengo']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['ruangruang', 'laboratorium', 'ruang', 'produksi', 'bio', 'farma', 'harihari', 'ilmuwan', 'jaran', 'mengo']</t>
         </is>
       </c>
     </row>
@@ -1231,34 +1341,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>21491</v>
+        <v>31262</v>
       </c>
       <c r="C23" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>pemerintah membangun infrastruktur untuk meningkatkan konektivitas fisik di seluruh tanah air pemerintah juga mem</t>
+          <t>saya selalu menyampaikan kepada seluruh kementerian lembaga dan bumn untuk memberi ruang lebih bagi produkproduk</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['pemerintah', 'membangun', 'infrastruktur', 'untuk', 'meningkatkan', 'konektivitas', 'fisik', 'di', 'seluruh', 'tanah', 'air', 'pemerintah', 'juga', 'mem']</t>
+          <t>['saya', 'selalu', 'menyampaikan', 'kepada', 'seluruh', 'kementerian', 'lembaga', 'dan', 'bumn', 'untuk', 'memberi', 'ruang', 'lebih', 'bagi', 'produkproduk']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['saya', 'selalu', 'menyampaikan', 'kepada', 'seluruh', 'kementerian', 'lembaga', 'dan', 'badan, usaha, milik, negara', 'untuk', 'memberi', 'ruang', 'lebih', 'bagi', 'produkproduk']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['pemerintah', 'membangun', 'infrastruktur', 'meningkatkan', 'konektivitas', 'fisik', 'tanah', 'air', 'pemerintah', 'mem']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['perintah', 'bangun', 'infrastruktur', 'tingkat', 'konektivitas', 'fisik', 'tanah', 'air', 'perintah', 'mem']</t>
+          <t>['kementerian', 'lembaga', 'badan, usaha, milik, negara', 'ruang', 'produkproduk']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['menteri', 'lembaga', 'badan usaha milik negara', 'ruang', 'produkproduk']</t>
         </is>
       </c>
     </row>
@@ -1267,34 +1382,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>21492</v>
+        <v>31263</v>
       </c>
       <c r="C24" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">our deepest condolences to the government and people of father of the nation sir michael somare was  true </t>
+          <t>rakernas hipmi saya buka pagi tadi di tengah tantangan dunia usaha yang tidak mudah dalam setahun ini tapi saya</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['our', 'deepest', 'condolences', 'to', 'the', 'government', 'and', 'people', 'of', 'father', 'of', 'the', 'nation', 'sir', 'michael', 'somare', 'was', 'true']</t>
+          <t>['rakernas', 'hipmi', 'saya', 'buka', 'pagi', 'tadi', 'di', 'tengah', 'tantangan', 'dunia', 'usaha', 'yang', 'tidak', 'mudah', 'dalam', 'setahun', 'ini', 'tapi', 'saya']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['rakernas', 'hipmi', 'saya', 'buka', 'pagi', 'tadi', 'di', 'tengah', 'tantangan', 'dunia', 'usaha', 'yang', 'tidak', 'mudah', 'dalam', 'setahun', 'ini', 'tapi', 'saya']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['our', 'deepest', 'condolences', 'to', 'the', 'government', 'and', 'people', 'of', 'father', 'of', 'the', 'nation', 'sir', 'michael', 'somare', 'was', 'true']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['our', 'deepest', 'condolences', 'to', 'the', 'government', 'and', 'people', 'of', 'father', 'of', 'the', 'nation', 'sir', 'michael', 'somare', 'was', 'true']</t>
+          <t>['rakernas', 'hipmi', 'buka', 'pagi', 'tantangan', 'dunia', 'usaha', 'mudah', 'setahun']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['rakernas', 'hipmi', 'buka', 'pagi', 'tantang', 'dunia', 'usaha', 'mudah', 'tahun']</t>
         </is>
       </c>
     </row>
@@ -1303,34 +1423,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>21493</v>
+        <v>31264</v>
       </c>
       <c r="C25" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>dengan bergerak bersama pemulihan ekonomi nasional semakin efektif sumbangsih pemikiran para ekonom pelaku usaha</t>
+          <t>sekali lagi prioritas pemerintah jelas keselamatan dan kesehatan masyarakat adalah yang utama untuk itu pemer</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['dengan', 'bergerak', 'bersama', 'pemulihan', 'ekonomi', 'nasional', 'semakin', 'efektif', 'sumbangsih', 'pemikiran', 'para', 'ekonom', 'pelaku', 'usaha']</t>
+          <t>['sekali', 'lagi', 'prioritas', 'pemerintah', 'jelas', 'keselamatan', 'dan', 'kesehatan', 'masyarakat', 'adalah', 'yang', 'utama', 'untuk', 'itu', 'pemer']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['sekali', 'lagi', 'prioritas', 'pemerintah', 'jelas', 'keselamatan', 'dan', 'kesehatan', 'masyarakat', 'adalah', 'yang', 'utama', 'untuk', 'itu', 'pemer']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['bergerak', 'pemulihan', 'ekonomi', 'nasional', 'efektif', 'sumbangsih', 'pemikiran', 'ekonom', 'pelaku', 'usaha']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['gerak', 'pulih', 'ekonomi', 'nasional', 'efektif', 'sumbangsih', 'pikir', 'ekonom', 'laku', 'usaha']</t>
+          <t>['prioritas', 'pemerintah', 'keselamatan', 'kesehatan', 'masyarakat', 'utama', 'pemer']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['prioritas', 'perintah', 'selamat', 'sehat', 'masyarakat', 'utama', 'per']</t>
         </is>
       </c>
     </row>
@@ -1339,34 +1464,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>21494</v>
+        <v>31265</v>
       </c>
       <c r="C26" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">pemerintah indonesia berupaya keras melakukan percepatan penanganan krisis kesehatan penanganan   dan ppkm </t>
+          <t>jumlah vaksin semakin meningkat seiring dengan komitmen dari berbagai produsen seluruhnya untuk program vaksinasi</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['pemerintah', 'indonesia', 'berupaya', 'keras', 'melakukan', 'percepatan', 'penanganan', 'krisis', 'kesehatan', 'penanganan', 'dan', 'ppkm']</t>
+          <t>['jumlah', 'vaksin', 'semakin', 'meningkat', 'seiring', 'dengan', 'komitmen', 'dari', 'berbagai', 'produsen', 'seluruhnya', 'untuk', 'program', 'vaksinasi']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
+          <t>['jumlah', 'vaksin', 'semakin', 'meningkat', 'seiring', 'dengan', 'komitmen', 'dari', 'berbagai', 'produsen', 'seluruhnya', 'untuk', 'program', 'vaksinasi']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['pemerintah', 'indonesia', 'berupaya', 'keras', 'percepatan', 'penanganan', 'krisis', 'kesehatan', 'penanganan', 'ppkm']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['perintah', 'indonesia', 'upaya', 'keras', 'cepat', 'tangan', 'krisis', 'sehat', 'tangan', 'ppkm']</t>
+          <t>['vaksin', 'meningkat', 'seiring', 'komitmen', 'produsen', 'program', 'vaksinasi']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['vaksin', 'tingkat', 'iring', 'komitmen', 'produsen', 'program', 'vaksinasi']</t>
         </is>
       </c>
     </row>
@@ -1375,34 +1505,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>21495</v>
+        <v>31266</v>
       </c>
       <c r="C27" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>sejumlah lembaga keuangan dunia memproyeksikan pertumbuhan ekonomi indonesia tahun akan positif beberapa indi</t>
+          <t>berkat pendekatan sejak jauhjauh hari kepada perusahaan farmasi global produsen vaksin covid kini indonesia te</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['sejumlah', 'lembaga', 'keuangan', 'dunia', 'memproyeksikan', 'pertumbuhan', 'ekonomi', 'indonesia', 'tahun', 'akan', 'positif', 'beberapa', 'indi']</t>
+          <t>['berkat', 'pendekatan', 'sejak', 'jauhjauh', 'hari', 'kepada', 'perusahaan', 'farmasi', 'global', 'produsen', 'vaksin', 'covid', 'kini', 'indonesia', 'te']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['berkat', 'pendekatan', 'sejak', 'jauhjauh', 'hari', 'kepada', 'perusahaan', 'farmasi', 'global', 'produsen', 'vaksin', 'covid', 'kini', 'indonesia', 'te']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['lembaga', 'keuangan', 'dunia', 'memproyeksikan', 'pertumbuhan', 'ekonomi', 'indonesia', 'positif', 'indi']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['lembaga', 'uang', 'dunia', 'proyeksi', 'tumbuh', 'ekonomi', 'indonesia', 'positif', 'indi']</t>
+          <t>['berkat', 'pendekatan', 'jauhjauh', 'perusahaan', 'farmasi', 'global', 'produsen', 'vaksin', 'covid', 'indonesia', 'te']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['berkat', 'dekat', 'jauhjauh', 'usaha', 'farmasi', 'global', 'produsen', 'vaksin', 'covid', 'indonesia', 'te']</t>
         </is>
       </c>
     </row>
@@ -1411,34 +1546,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>21496</v>
+        <v>31267</v>
       </c>
       <c r="C28" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>tiga pasang gubernur dan wakil gubernur yang terpilih di pilkada lalu saya lantik di istana negara hari ini mere</t>
+          <t>saya bergembira dapat hadir dan meresmikan kampus baru universitas sultan ageng tirtayasa untirta di sindangsari</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['tiga', 'pasang', 'gubernur', 'dan', 'wakil', 'gubernur', 'yang', 'terpilih', 'di', 'pilkada', 'lalu', 'saya', 'lantik', 'di', 'istana', 'negara', 'hari', 'ini', 'mere']</t>
+          <t>['saya', 'bergembira', 'dapat', 'hadir', 'dan', 'meresmikan', 'kampus', 'baru', 'universitas', 'sultan', 'ageng', 'tirtayasa', 'untirta', 'di', 'sindangsari']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['saya', 'bergembira', 'dapat', 'hadir', 'dan', 'meresmikan', 'kampus', 'baru', 'universitas', 'sultan', 'ageng', 'tirtayasa', 'untirta', 'di', 'sindangsari']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['pasang', 'gubernur', 'wakil', 'gubernur', 'terpilih', 'pilkada', 'lantik', 'istana', 'negara', 'mere']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['pasang', 'gubernur', 'wakil', 'gubernur', 'pilih', 'pilkada', 'lantik', 'istana', 'negara', 'mere']</t>
+          <t>['bergembira', 'hadir', 'meresmikan', 'kampus', 'universitas', 'sultan', 'ageng', 'tirtayasa', 'untirta', 'sindangsari']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['gembira', 'hadir', 'resmi', 'kampus', 'universitas', 'sultan', 'ageng', 'tirtayasa', 'untirta', 'sindangsari']</t>
         </is>
       </c>
     </row>
@@ -1447,34 +1587,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>21497</v>
+        <v>31268</v>
       </c>
       <c r="C29" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>tiba juga giliran para wartawan menerima vaksinasi covid seharihari mereka bekerja di lapangan berhubungan de</t>
+          <t>bendungan sindangheula juga akan mengurangi potensi banjir sungai ciujung dan cidurian dan untuk pembangkit listri</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['tiba', 'juga', 'giliran', 'para', 'wartawan', 'menerima', 'vaksinasi', 'covid', 'seharihari', 'mereka', 'bekerja', 'di', 'lapangan', 'berhubungan', 'de']</t>
+          <t>['bendungan', 'sindangheula', 'juga', 'akan', 'mengurangi', 'potensi', 'banjir', 'sungai', 'ciujung', 'dan', 'cidurian', 'dan', 'untuk', 'pembangkit', 'listri']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['bendungan', 'sindangheula', 'juga', 'akan', 'mengurangi', 'potensi', 'banjir', 'sungai', 'ciujung', 'dan', 'cidurian', 'dan', 'untuk', 'pembangkit', 'listri']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['giliran', 'wartawan', 'menerima', 'vaksinasi', 'covid', 'seharihari', 'lapangan', 'berhubungan', 'de']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['gilir', 'wartawan', 'terima', 'vaksinasi', 'covid', 'seharihari', 'lapang', 'hubung', 'de']</t>
+          <t>['bendungan', 'sindangheula', 'mengurangi', 'potensi', 'banjir', 'sungai', 'ciujung', 'cidurian', 'pembangkit', 'listri']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['bendung', 'sindangheula', 'kurang', 'potensi', 'banjir', 'sungai', 'ciujung', 'cidurian', 'bangkit', 'listri']</t>
         </is>
       </c>
     </row>
@@ -1483,34 +1628,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>21498</v>
+        <v>31269</v>
       </c>
       <c r="C30" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>sabtu malam lalu tanggul sungai citarum di bekasi jebol di tiga titik limpasan air merendam rumahrumah sekitarn</t>
+          <t>saya meresmikan bendungan sindangheula di kab serang banten siang tadi bendungan berkapasitas juta  air</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['sabtu', 'malam', 'lalu', 'tanggul', 'sungai', 'citarum', 'di', 'bekasi', 'jebol', 'di', 'tiga', 'titik', 'limpasan', 'air', 'merendam', 'rumahrumah', 'sekitarn']</t>
+          <t>['saya', 'meresmikan', 'bendungan', 'sindangheula', 'di', 'kab', 'serang', 'banten', 'siang', 'tadi', 'bendungan', 'berkapasitas', 'juta', 'air']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['saya', 'meresmikan', 'bendungan', 'sindangheula', 'di', 'kabupaten', 'serang', 'banten', 'siang', 'tadi', 'bendungan', 'berkapasitas', 'juta', 'air']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['sabtu', 'malam', 'tanggul', 'sungai', 'citarum', 'bekasi', 'jebol', 'titik', 'limpasan', 'air', 'merendam', 'rumahrumah', 'sekitarn']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['sabtu', 'malam', 'tanggul', 'sungai', 'citarum', 'bekas', 'jebol', 'titik', 'limpas', 'air', 'rendam', 'rumahrumah', 'sekitarn']</t>
+          <t>['meresmikan', 'bendungan', 'sindangheula', 'kabupaten', 'serang', 'banten', 'siang', 'bendungan', 'berkapasitas', 'juta', 'air']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['resmi', 'bendung', 'sindangheula', 'kabupaten', 'serang', 'banten', 'siang', 'bendung', 'kapasitas', 'juta', 'air']</t>
         </is>
       </c>
     </row>
@@ -1519,34 +1669,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>21499</v>
+        <v>31270</v>
       </c>
       <c r="C31" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>kunci kemakmuran ntt adalah air begitu ada air semua bisa ditanam karena itu pemerintah membangun tujuh bendung</t>
+          <t xml:space="preserve">dari helipad di monumen nasional jakarta siang ini saya bertolak menuju provinsi banten dengan helikopter di </t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['kunci', 'kemakmuran', 'ntt', 'adalah', 'air', 'begitu', 'ada', 'air', 'semua', 'bisa', 'ditanam', 'karena', 'itu', 'pemerintah', 'membangun', 'tujuh', 'bendung']</t>
+          <t>['dari', 'helipad', 'di', 'monumen', 'nasional', 'jakarta', 'siang', 'ini', 'saya', 'bertolak', 'menuju', 'provinsi', 'banten', 'dengan', 'helikopter', 'di']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['dari', 'helipad', 'di', 'monumen', 'nasional', 'jakarta', 'siang', 'ini', 'saya', 'bertolak', 'menuju', 'provinsi', 'banten', 'dengan', 'helikopter', 'di']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['kunci', 'kemakmuran', 'ntt', 'air', 'air', 'ditanam', 'pemerintah', 'membangun', 'tujuh', 'bendung']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['kunci', 'makmur', 'ntt', 'air', 'air', 'tanam', 'perintah', 'bangun', 'tujuh', 'bendung']</t>
+          <t>['helipad', 'monumen', 'nasional', 'jakarta', 'siang', 'bertolak', 'provinsi', 'banten', 'helikopter']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['helipad', 'monumen', 'nasional', 'jakarta', 'siang', 'tolak', 'provinsi', 'banten', 'helikopter']</t>
         </is>
       </c>
     </row>
@@ -1555,34 +1710,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>21500</v>
+        <v>31271</v>
       </c>
       <c r="C32" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>nusa tenggara timur kini menatap masa depan yang lebih cerah dengan kehadiran lumbung pangan baru di kabupaten sumb</t>
+          <t>pertumbuhan ekonomi indonesia jatuh di minus persen namun kinerja perdagangan luar negeri kita tahun</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['nusa', 'tenggara', 'timur', 'kini', 'menatap', 'masa', 'depan', 'yang', 'lebih', 'cerah', 'dengan', 'kehadiran', 'lumbung', 'pangan', 'baru', 'di', 'kabupaten', 'sumb']</t>
+          <t>['pertumbuhan', 'ekonomi', 'indonesia', 'jatuh', 'di', 'minus', 'persen', 'namun', 'kinerja', 'perdagangan', 'luar', 'negeri', 'kita', 'tahun']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['pertumbuhan', 'ekonomi', 'indonesia', 'jatuh', 'di', 'minus', 'persen', 'namun', 'kinerja', 'perdagangan', 'luar', 'negeri', 'kita', 'tahun']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['nusa', 'tenggara', 'timur', 'menatap', 'cerah', 'kehadiran', 'lumbung', 'pangan', 'kabupaten', 'sumb']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['nusa', 'tenggara', 'timur', 'tatap', 'cerah', 'hadir', 'lumbung', 'pangan', 'kabupaten', 'sumb']</t>
+          <t>['pertumbuhan', 'ekonomi', 'indonesia', 'jatuh', 'minus', 'persen', 'kinerja', 'perdagangan', 'negeri']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['tumbuh', 'ekonomi', 'indonesia', 'jatuh', 'minus', 'persen', 'kerja', 'dagang', 'negeri']</t>
         </is>
       </c>
     </row>
@@ -1591,34 +1751,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>21501</v>
+        <v>31272</v>
       </c>
       <c r="C33" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>vaksinasi massal covid bagi tenaga pendidik dan kependidikan dimulai hari ini di sman jakarta diikuti provin</t>
+          <t xml:space="preserve">saya mengajak anda semua para wajib pajak jangan sampai terlambat pajak yang kita bayarkan sangat dibutuhkan </t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['vaksinasi', 'massal', 'covid', 'bagi', 'tenaga', 'pendidik', 'dan', 'kependidikan', 'dimulai', 'hari', 'ini', 'di', 'sman', 'jakarta', 'diikuti', 'provin']</t>
+          <t>['saya', 'mengajak', 'anda', 'semua', 'para', 'wajib', 'pajak', 'jangan', 'sampai', 'terlambat', 'pajak', 'yang', 'kita', 'bayarkan', 'sangat', 'dibutuhkan']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['saya', 'mengajak', 'anda', 'semua', 'para', 'wajib', 'pajak', 'jangan', 'sampai', 'terlambat', 'pajak', 'yang', 'kita', 'bayarkan', 'sangat', 'dibutuhkan']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['vaksinasi', 'massal', 'covid', 'tenaga', 'pendidik', 'kependidikan', 'sman', 'jakarta', 'diikuti', 'provin']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['vaksinasi', 'massal', 'covid', 'tenaga', 'didik', 'didik', 'sman', 'jakarta', 'ikut', 'provin']</t>
+          <t>['mengajak', 'wajib', 'pajak', 'terlambat', 'pajak', 'bayarkan', 'dibutuhkan']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['ajak', 'wajib', 'pajak', 'lambat', 'pajak', 'bayar', 'butuh']</t>
         </is>
       </c>
     </row>
@@ -1627,34 +1792,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>21502</v>
+        <v>31273</v>
       </c>
       <c r="C34" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>bendungan napun gete berkapasitas tampung hingga juta  dengan luas genangan ha saya berharap bendu</t>
+          <t>sudah lima tahun ini saya lapor pajak tanpa perlu datang ke kantor pajak caranya online melalui efilling hari</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['bendungan', 'napun', 'gete', 'berkapasitas', 'tampung', 'hingga', 'juta', 'dengan', 'luas', 'genangan', 'ha', 'saya', 'berharap', 'bendu']</t>
+          <t>['sudah', 'lima', 'tahun', 'ini', 'saya', 'lapor', 'pajak', 'tanpa', 'perlu', 'datang', 'ke', 'kantor', 'pajak', 'caranya', 'online', 'melalui', 'efilling', 'hari']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['sudah', 'lima', 'tahun', 'ini', 'saya', 'lapor', 'pajak', 'tanpa', 'perlu', 'datang', 'ke', 'kantor', 'pajak', 'caranya', 'online', 'melalui', 'efilling', 'hari']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['bendungan', 'napun', 'gete', 'berkapasitas', 'tampung', 'juta', 'luas', 'genangan', 'ha', 'berharap', 'bendu']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['bendung', 'napun', 'gete', 'kapasitas', 'tampung', 'juta', 'luas', 'genang', 'ha', 'harap', 'bendu']</t>
+          <t>['lapor', 'pajak', 'kantor', 'pajak', 'online', 'efilling']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['lapor', 'pajak', 'kantor', 'pajak', 'online', 'efilling']</t>
         </is>
       </c>
     </row>
@@ -1663,34 +1833,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>21503</v>
+        <v>31274</v>
       </c>
       <c r="C35" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>kunci kemakmuran ntt adalah air begitu ada air semua bisa ditanam untuk itu tidak tanggungtanggung tujuh bend</t>
+          <t>bencana alam dan nonalam berupa pandemi telah memberi indonesia pelajaran yang luar biasa bencana berskala global</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['kunci', 'kemakmuran', 'ntt', 'adalah', 'air', 'begitu', 'ada', 'air', 'semua', 'bisa', 'ditanam', 'untuk', 'itu', 'tidak', 'tanggungtanggung', 'tujuh', 'bend']</t>
+          <t>['bencana', 'alam', 'dan', 'nonalam', 'berupa', 'pandemi', 'telah', 'memberi', 'indonesia', 'pelajaran', 'yang', 'luar', 'biasa', 'bencana', 'berskala', 'global']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['bencana', 'alam', 'dan', 'nonalam', 'berupa', 'pandemi', 'telah', 'memberi', 'indonesia', 'pelajaran', 'yang', 'luar', 'biasa', 'bencana', 'berskala', 'global']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['kunci', 'kemakmuran', 'ntt', 'air', 'air', 'ditanam', 'tanggungtanggung', 'tujuh', 'bend']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['kunci', 'makmur', 'ntt', 'air', 'air', 'tanam', 'tanggungtanggung', 'tujuh', 'bend']</t>
+          <t>['bencana', 'alam', 'nonalam', 'pandemi', 'indonesia', 'pelajaran', 'bencana', 'berskala', 'global']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['bencana', 'alam', 'nonalam', 'pandemi', 'indonesia', 'ajar', 'bencana', 'skala', 'global']</t>
         </is>
       </c>
     </row>
@@ -1699,34 +1874,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>21504</v>
+        <v>31275</v>
       </c>
       <c r="C36" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>saya menginstruksikan menteri pupr melihat potensi pembangunan bendungan dan menteri pertanian memberi bantuan ala</t>
+          <t>dalam setahun ini bnpb mencatat ada bencana di indonesia dari bencana hidrometeorologi hingga geologi kar</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['saya', 'menginstruksikan', 'menteri', 'pupr', 'melihat', 'potensi', 'pembangunan', 'bendungan', 'dan', 'menteri', 'pertanian', 'memberi', 'bantuan', 'ala']</t>
+          <t>['dalam', 'setahun', 'ini', 'bnpb', 'mencatat', 'ada', 'bencana', 'di', 'indonesia', 'dari', 'bencana', 'hidrometeorologi', 'hingga', 'geologi', 'kar']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['dalam', 'setahun', 'ini', 'bnpb', 'mencatat', 'ada', 'bencana', 'di', 'indonesia', 'dari', 'bencana', 'hidrometeorologi', 'hingga', 'geologi', 'kar']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['menginstruksikan', 'menteri', 'pupr', 'potensi', 'pembangunan', 'bendungan', 'menteri', 'pertanian', 'bantuan', 'ala']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['instruksi', 'menteri', 'pupr', 'potensi', 'bangun', 'bendung', 'menteri', 'tani', 'bantu', 'ala']</t>
+          <t>['setahun', 'bnpb', 'mencatat', 'bencana', 'indonesia', 'bencana', 'hidrometeorologi', 'geologi', 'kar']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['tahun', 'bnpb', 'catat', 'bencana', 'indonesia', 'bencana', 'hidrometeorologi', 'geologi', 'kar']</t>
         </is>
       </c>
     </row>
@@ -1735,34 +1915,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>21505</v>
+        <v>31276</v>
       </c>
       <c r="C37" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>hujan lebat di desa makata keri sumba tengah saat saya datang meninjau lumbung pangan baru di ntt ini siang tadi</t>
+          <t>sebanyak juta dosis bahan baku vaksin covid tiba di tanah air siang tadi untuk selanjutnya diolah dan dipro</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['hujan', 'lebat', 'di', 'desa', 'makata', 'keri', 'sumba', 'tengah', 'saat', 'saya', 'datang', 'meninjau', 'lumbung', 'pangan', 'baru', 'di', 'ntt', 'ini', 'siang', 'tadi']</t>
+          <t>['sebanyak', 'juta', 'dosis', 'bahan', 'baku', 'vaksin', 'covid', 'tiba', 'di', 'tanah', 'air', 'siang', 'tadi', 'untuk', 'selanjutnya', 'diolah', 'dan', 'dipro']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+          <t>['sebanyak', 'juta', 'dosis', 'bahan', 'baku', 'vaksin', 'covid', 'tiba', 'di', 'tanah', 'air', 'siang', 'tadi', 'untuk', 'selanjutnya', 'diolah', 'dan', 'dipro']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['hujan', 'lebat', 'desa', 'makata', 'keri', 'sumba', 'meninjau', 'lumbung', 'pangan', 'ntt', 'siang']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['hujan', 'lebat', 'desa', 'makata', 'keri', 'sumba', 'tinjau', 'lumbung', 'pangan', 'ntt', 'siang']</t>
+          <t>['juta', 'dosis', 'bahan', 'baku', 'vaksin', 'covid', 'tanah', 'air', 'siang', 'diolah', 'dipro']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['juta', 'dosis', 'bahan', 'baku', 'vaksin', 'covid', 'tanah', 'air', 'siang', 'olah', 'pro']</t>
         </is>
       </c>
     </row>
@@ -1771,34 +1956,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>21506</v>
+        <v>31277</v>
       </c>
       <c r="C38" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>sepagi ini saya telah meninggalkan jakarta menuju nusa tenggara timur untuk kunjungan selama sehari saya hendak</t>
+          <t>saya telah menerima masukan dari mui nu muhammadiyah ormasormas lain dll mengenai lampiran perpres tentang bid</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['sepagi', 'ini', 'saya', 'telah', 'meninggalkan', 'jakarta', 'menuju', 'nusa', 'tenggara', 'timur', 'untuk', 'kunjungan', 'selama', 'sehari', 'saya', 'hendak']</t>
+          <t>['saya', 'telah', 'menerima', 'masukan', 'dari', 'mui', 'nu', 'muhammadiyah', 'ormasormas', 'lain', 'dll', 'mengenai', 'lampiran', 'perpres', 'tentang', 'bid']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['saya', 'telah', 'menerima', 'masukan', 'dari', 'majelis, ulama, indonesia', 'nu', 'muhammadiyah', 'ormasormas', 'lain', 'dan, lain, lain', 'mengenai', 'lampiran', 'peraturan, presiden', 'tentang', 'bid']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['sepagi', 'meninggalkan', 'jakarta', 'nusa', 'tenggara', 'timur', 'kunjungan', 'sehari']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['pagi', 'tinggal', 'jakarta', 'nusa', 'tenggara', 'timur', 'kunjung', 'hari']</t>
+          <t>['menerima', 'masukan', 'majelis, ulama, indonesia', 'nu', 'muhammadiyah', 'ormasormas', 'dan, lain, lain', 'lampiran', 'peraturan, presiden', 'bid']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['terima', 'masuk', 'majelis ulama indonesia', 'nu', 'muhammadiyah', 'ormasormas', 'dan lain lain', 'lampir', 'atur presiden', 'bid']</t>
         </is>
       </c>
     </row>
@@ -1807,34 +1997,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>21507</v>
+        <v>31278</v>
       </c>
       <c r="C39" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>saya melantik para anggota dewan pengawas beserta direksi bpjs kesehatan dan bpjs ketenagakerjaan masa jabatan</t>
+          <t>selamat pagi harihari ini pemerintah menggelar vaksinasi massal tahap kedua untuk juta pelayan dan pekerja</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['saya', 'melantik', 'para', 'anggota', 'dewan', 'pengawas', 'beserta', 'direksi', 'bpjs', 'kesehatan', 'dan', 'bpjs', 'ketenagakerjaan', 'masa', 'jabatan']</t>
+          <t>['selamat', 'pagi', 'harihari', 'ini', 'pemerintah', 'menggelar', 'vaksinasi', 'massal', 'tahap', 'kedua', 'untuk', 'juta', 'pelayan', 'dan', 'pekerja']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['selamat', 'pagi', 'harihari', 'ini', 'pemerintah', 'menggelar', 'vaksinasi', 'massal', 'tahap', 'kedua', 'untuk', 'juta', 'pelayan', 'dan', 'pekerja']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['melantik', 'anggota', 'dewan', 'pengawas', 'beserta', 'direksi', 'bpjs', 'kesehatan', 'bpjs', 'ketenagakerjaan', 'jabatan']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['lantik', 'anggota', 'dewan', 'awas', 'serta', 'direksi', 'bpjs', 'sehat', 'bpjs', 'ketenagakerjaan', 'jabat']</t>
+          <t>['selamat', 'pagi', 'harihari', 'pemerintah', 'menggelar', 'vaksinasi', 'massal', 'tahap', 'juta', 'pelayan', 'pekerja']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['selamat', 'pagi', 'harihari', 'perintah', 'gelar', 'vaksinasi', 'massal', 'tahap', 'juta', 'layan', 'kerja']</t>
         </is>
       </c>
     </row>
@@ -1843,34 +2038,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>21508</v>
+        <v>31279</v>
       </c>
       <c r="C40" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>pengucapan sumpah sembilan anggota ombudsman republik indonesia siang ini di jakarta mereka akan mengawa</t>
+          <t>anda yang dari yogyakarta ke solo atau sebaliknya kini punya pilihan moda transportasi ramah lingkungan krl linta</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['pengucapan', 'sumpah', 'sembilan', 'anggota', 'ombudsman', 'republik', 'indonesia', 'siang', 'ini', 'di', 'jakarta', 'mereka', 'akan', 'mengawa']</t>
+          <t>['anda', 'yang', 'dari', 'yogyakarta', 'ke', 'solo', 'atau', 'sebaliknya', 'kini', 'punya', 'pilihan', 'moda', 'transportasi', 'ramah', 'lingkungan', 'krl', 'linta']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['anda', 'yang', 'dari', 'yogyakarta', 'ke', 'solo', 'atau', 'sebaliknya', 'kini', 'punya', 'pilihan', 'moda', 'transportasi', 'ramah', 'lingkungan', 'kereta, listrik', 'linta']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['pengucapan', 'sumpah', 'sembilan', 'anggota', 'ombudsman', 'republik', 'indonesia', 'siang', 'jakarta', 'mengawa']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['ucap', 'sumpah', 'sembilan', 'anggota', 'ombudsman', 'republik', 'indonesia', 'siang', 'jakarta', 'awa']</t>
+          <t>['yogyakarta', 'solo', 'pilihan', 'moda', 'transportasi', 'ramah', 'lingkungan', 'kereta, listrik', 'linta']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['yogyakarta', 'solo', 'pilih', 'moda', 'transportasi', 'ramah', 'lingkung', 'kereta listrik', 'linta']</t>
         </is>
       </c>
     </row>
@@ -1879,34 +2079,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>21509</v>
+        <v>31280</v>
       </c>
       <c r="C41" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>untuk anda semua di seluruh tanah air pripun kabare indonesia sungguh kaya akan keragaman dihuni lebih seribu</t>
+          <t>para pedagang pasar beringharjo pedagang kaki lima pengayuh becak sampai kusir andong malioboro di yogyakarta mu</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['untuk', 'anda', 'semua', 'di', 'seluruh', 'tanah', 'air', 'pripun', 'kabare', 'indonesia', 'sungguh', 'kaya', 'akan', 'keragaman', 'dihuni', 'lebih', 'seribu']</t>
+          <t>['para', 'pedagang', 'pasar', 'beringharjo', 'pedagang', 'kaki', 'lima', 'pengayuh', 'becak', 'sampai', 'kusir', 'andong', 'malioboro', 'di', 'yogyakarta', 'mu']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['para', 'pedagang', 'pasar', 'beringharjo', 'pedagang', 'kaki', 'lima', 'pengayuh', 'becak', 'sampai', 'kusir', 'andong', 'malioboro', 'di', 'yogyakarta', 'mu']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['tanah', 'air', 'pripun', 'kabare', 'indonesia', 'sungguh', 'kaya', 'keragaman', 'dihuni', 'seribu']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['tanah', 'air', 'pripun', 'kabare', 'indonesia', 'sungguh', 'kaya', 'ragam', 'huni', 'ribu']</t>
+          <t>['pedagang', 'pasar', 'beringharjo', 'pedagang', 'kaki', 'pengayuh', 'becak', 'kusir', 'andong', 'malioboro', 'yogyakarta', 'mu']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['dagang', 'pasar', 'beringharjo', 'dagang', 'kaki', 'kayuh', 'becak', 'kusir', 'andong', 'malioboro', 'yogyakarta', 'mu']</t>
         </is>
       </c>
     </row>
@@ -1915,34 +2120,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>21510</v>
+        <v>31281</v>
       </c>
       <c r="C42" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>lima tahun dibangun bendungan tapin dengan luas genangan ha di kalimantan selatan telah selesai saya meresmik</t>
+          <t>innalillahi wa inna ilaihi rajiun kita kehilangan seorang putra terbaik bangsa seorang yang hidupnya diabdikan un</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['lima', 'tahun', 'dibangun', 'bendungan', 'tapin', 'dengan', 'luas', 'genangan', 'ha', 'di', 'kalimantan', 'selatan', 'telah', 'selesai', 'saya', 'meresmik']</t>
+          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'kita', 'kehilangan', 'seorang', 'putra', 'terbaik', 'bangsa', 'seorang', 'yang', 'hidupnya', 'diabdikan', 'un']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'kita', 'kehilangan', 'seorang', 'putra', 'terbaik', 'bangsa', 'seorang', 'yang', 'hidupnya', 'diabdikan', 'ujian, nasional']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['dibangun', 'bendungan', 'tapin', 'luas', 'genangan', 'ha', 'kalimantan', 'selatan', 'selesai', 'meresmik']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['bangun', 'bendung', 'tapin', 'luas', 'genang', 'ha', 'kalimantan', 'selatan', 'selesai', 'meresmik']</t>
+          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'kehilangan', 'putra', 'terbaik', 'bangsa', 'hidupnya', 'diabdikan', 'ujian, nasional']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'hilang', 'putra', 'baik', 'bangsa', 'hidup', 'abdi', 'uji nasional']</t>
         </is>
       </c>
     </row>
@@ -1951,34 +2161,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>21511</v>
+        <v>31282</v>
       </c>
       <c r="C43" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>laporan yang saya terima bahkan sebelum diresmikan pun kehadiran bendungan tapin sudah mengurangi banjir di daera</t>
+          <t>sore ini saya ke yogyakarta untuk kunjungan kerja esok hari saya hendak meninjau vaksinasi massal bagi para peke</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['laporan', 'yang', 'saya', 'terima', 'bahkan', 'sebelum', 'diresmikan', 'pun', 'kehadiran', 'bendungan', 'tapin', 'sudah', 'mengurangi', 'banjir', 'di', 'daera']</t>
+          <t>['sore', 'ini', 'saya', 'ke', 'yogyakarta', 'untuk', 'kunjungan', 'kerja', 'esok', 'hari', 'saya', 'hendak', 'meninjau', 'vaksinasi', 'massal', 'bagi', 'para', 'peke']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['sore', 'ini', 'saya', 'ke', 'yogyakarta', 'untuk', 'kunjungan', 'kerja', 'esok', 'hari', 'saya', 'hendak', 'meninjau', 'vaksinasi', 'massal', 'bagi', 'para', 'peke']</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['laporan', 'terima', 'diresmikan', 'kehadiran', 'bendungan', 'tapin', 'mengurangi', 'banjir', 'daera']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['lapor', 'terima', 'resmi', 'hadir', 'bendung', 'tapin', 'kurang', 'banjir', 'daera']</t>
+          <t>['sore', 'yogyakarta', 'kunjungan', 'kerja', 'esok', 'meninjau', 'vaksinasi', 'massal', 'peke']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['sore', 'yogyakarta', 'kunjung', 'kerja', 'esok', 'tinjau', 'vaksinasi', 'massal', 'peke']</t>
         </is>
       </c>
     </row>
@@ -1987,34 +2202,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>21512</v>
+        <v>31283</v>
       </c>
       <c r="C44" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>lima tahun dibangun bendungan tapin di kalimantan selatan telah selesai dan saya resmikan hari ini seraya ikut me</t>
+          <t>dunia yang kian bergerak ke arah digital kita hadapi dengan membangun infrastruktur untuk konektivitas digital di</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['lima', 'tahun', 'dibangun', 'bendungan', 'tapin', 'di', 'kalimantan', 'selatan', 'telah', 'selesai', 'dan', 'saya', 'resmikan', 'hari', 'ini', 'seraya', 'ikut', 'me']</t>
+          <t>['dunia', 'yang', 'kian', 'bergerak', 'ke', 'arah', 'digital', 'kita', 'hadapi', 'dengan', 'membangun', 'infrastruktur', 'untuk', 'konektivitas', 'digital', 'di']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['dunia', 'yang', 'kian', 'bergerak', 'ke', 'arah', 'digital', 'kita', 'hadapi', 'dengan', 'membangun', 'infrastruktur', 'untuk', 'konektivitas', 'digital', 'di']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['dibangun', 'bendungan', 'tapin', 'kalimantan', 'selatan', 'selesai', 'resmikan', 'seraya', 'me']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['bangun', 'bendung', 'tapin', 'kalimantan', 'selatan', 'selesai', 'resmi', 'seraya', 'me']</t>
+          <t>['dunia', 'kian', 'bergerak', 'arah', 'digital', 'hadapi', 'membangun', 'infrastruktur', 'konektivitas', 'digital']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['dunia', 'kian', 'gerak', 'arah', 'digital', 'hadap', 'bangun', 'infrastruktur', 'konektivitas', 'digital']</t>
         </is>
       </c>
     </row>
@@ -2023,34 +2243,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>21513</v>
+        <v>31284</v>
       </c>
       <c r="C45" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>selamat pagi saya bertolak menuju provinsi kalimantan selatan pagi ini untuk kunjungan sehari di kabupaten tapin</t>
+          <t>upaya mewujudkan konektivitas digital di indonesia itu bukan untuk kepentingan ekonomi sematamata tapi untuk memp</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['selamat', 'pagi', 'saya', 'bertolak', 'menuju', 'provinsi', 'kalimantan', 'selatan', 'pagi', 'ini', 'untuk', 'kunjungan', 'sehari', 'di', 'kabupaten', 'tapin']</t>
+          <t>['upaya', 'mewujudkan', 'konektivitas', 'digital', 'di', 'indonesia', 'itu', 'bukan', 'untuk', 'kepentingan', 'ekonomi', 'sematamata', 'tapi', 'untuk', 'memp']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['upaya', 'mewujudkan', 'konektivitas', 'digital', 'di', 'indonesia', 'itu', 'bukan', 'untuk', 'kepentingan', 'ekonomi', 'sematamata', 'tapi', 'untuk', 'memp']</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['selamat', 'pagi', 'bertolak', 'provinsi', 'kalimantan', 'selatan', 'pagi', 'kunjungan', 'sehari', 'kabupaten', 'tapin']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['selamat', 'pagi', 'tolak', 'provinsi', 'kalimantan', 'selatan', 'pagi', 'kunjung', 'hari', 'kabupaten', 'tapin']</t>
+          <t>['upaya', 'mewujudkan', 'konektivitas', 'digital', 'indonesia', 'kepentingan', 'ekonomi', 'sematamata', 'memp']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['upaya', 'wujud', 'konektivitas', 'digital', 'indonesia', 'penting', 'ekonomi', 'sematamata', 'memp']</t>
         </is>
       </c>
     </row>
@@ -2059,34 +2284,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>21514</v>
+        <v>31285</v>
       </c>
       <c r="C46" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">vaksinasi massal covid bagi pelayan dan pekerja publik dimulai hari ini dari pasar tanah abang jakarta apa </t>
+          <t>pemerintah membangun infrastruktur untuk meningkatkan konektivitas fisik di seluruh tanah air pemerintah juga mem</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['vaksinasi', 'massal', 'covid', 'bagi', 'pelayan', 'dan', 'pekerja', 'publik', 'dimulai', 'hari', 'ini', 'dari', 'pasar', 'tanah', 'abang', 'jakarta', 'apa']</t>
+          <t>['pemerintah', 'membangun', 'infrastruktur', 'untuk', 'meningkatkan', 'konektivitas', 'fisik', 'di', 'seluruh', 'tanah', 'air', 'pemerintah', 'juga', 'mem']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['pemerintah', 'membangun', 'infrastruktur', 'untuk', 'meningkatkan', 'konektivitas', 'fisik', 'di', 'seluruh', 'tanah', 'air', 'pemerintah', 'juga', 'mem']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['vaksinasi', 'massal', 'covid', 'pelayan', 'pekerja', 'publik', 'pasar', 'tanah', 'abang', 'jakarta']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['vaksinasi', 'massal', 'covid', 'layan', 'kerja', 'publik', 'pasar', 'tanah', 'abang', 'jakarta']</t>
+          <t>['pemerintah', 'membangun', 'infrastruktur', 'meningkatkan', 'konektivitas', 'fisik', 'tanah', 'air', 'pemerintah', 'mem']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['perintah', 'bangun', 'infrastruktur', 'tingkat', 'konektivitas', 'fisik', 'tanah', 'air', 'perintah', 'mem']</t>
         </is>
       </c>
     </row>
@@ -2095,34 +2325,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>21515</v>
+        <v>31286</v>
       </c>
       <c r="C47" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>vaksinasi massal covid tahap kedua dimulai hari ini di pasar tanah abang jakarta untuk pedagang vaksin</t>
+          <t xml:space="preserve">our deepest condolences to the government and people of father of the nation sir michael somare was  true </t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['vaksinasi', 'massal', 'covid', 'tahap', 'kedua', 'dimulai', 'hari', 'ini', 'di', 'pasar', 'tanah', 'abang', 'jakarta', 'untuk', 'pedagang', 'vaksin']</t>
+          <t>['our', 'deepest', 'condolences', 'to', 'the', 'government', 'and', 'people', 'of', 'father', 'of', 'the', 'nation', 'sir', 'michael', 'somare', 'was', 'true']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['our', 'deepest', 'condolences', 'to', 'the', 'government', 'and', 'people', 'of', 'father', 'of', 'the', 'nation', 'sir', 'michael', 'somare', 'was', 'true']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['vaksinasi', 'massal', 'covid', 'tahap', 'pasar', 'tanah', 'abang', 'jakarta', 'pedagang', 'vaksin']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['vaksinasi', 'massal', 'covid', 'tahap', 'pasar', 'tanah', 'abang', 'jakarta', 'dagang', 'vaksin']</t>
+          <t>['our', 'deepest', 'condolences', 'to', 'the', 'government', 'and', 'people', 'of', 'father', 'of', 'the', 'nation', 'sir', 'michael', 'somare', 'was', 'true']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['our', 'deepest', 'condolences', 'to', 'the', 'government', 'and', 'people', 'of', 'father', 'of', 'the', 'nation', 'sir', 'michael', 'somare', 'was', 'true']</t>
         </is>
       </c>
     </row>
@@ -2131,34 +2366,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>21516</v>
+        <v>31287</v>
       </c>
       <c r="C48" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>salah satu amanat uu cipta kerja adalah pembentukan lembaga pengelola dana abadi investasi dalam negeri hari ini</t>
+          <t>dengan bergerak bersama pemulihan ekonomi nasional semakin efektif sumbangsih pemikiran para ekonom pelaku usaha</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['salah', 'satu', 'amanat', 'uu', 'cipta', 'kerja', 'adalah', 'pembentukan', 'lembaga', 'pengelola', 'dana', 'abadi', 'investasi', 'dalam', 'negeri', 'hari', 'ini']</t>
+          <t>['dengan', 'bergerak', 'bersama', 'pemulihan', 'ekonomi', 'nasional', 'semakin', 'efektif', 'sumbangsih', 'pemikiran', 'para', 'ekonom', 'pelaku', 'usaha']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['dengan', 'bergerak', 'bersama', 'pemulihan', 'ekonomi', 'nasional', 'semakin', 'efektif', 'sumbangsih', 'pemikiran', 'para', 'ekonom', 'pelaku', 'usaha']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['salah', 'amanat', 'uu', 'cipta', 'kerja', 'pembentukan', 'lembaga', 'pengelola', 'dana', 'abadi', 'investasi', 'negeri']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['salah', 'amanat', 'uu', 'cipta', 'kerja', 'bentuk', 'lembaga', 'kelola', 'dana', 'abadi', 'investasi', 'negeri']</t>
+          <t>['bergerak', 'pemulihan', 'ekonomi', 'nasional', 'efektif', 'sumbangsih', 'pemikiran', 'ekonom', 'pelaku', 'usaha']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['gerak', 'pulih', 'ekonomi', 'nasional', 'efektif', 'sumbangsih', 'pikir', 'ekonom', 'laku', 'usaha']</t>
         </is>
       </c>
     </row>
@@ -2167,34 +2407,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>21517</v>
+        <v>31288</v>
       </c>
       <c r="C49" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>semangat awal uu ite adalah untuk menjaga agar ruang digital indonesia bersih sehat beretika dan produktif kala</t>
+          <t xml:space="preserve">pemerintah indonesia berupaya keras melakukan percepatan penanganan krisis kesehatan penanganan   dan ppkm </t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['semangat', 'awal', 'uu', 'ite', 'adalah', 'untuk', 'menjaga', 'agar', 'ruang', 'digital', 'indonesia', 'bersih', 'sehat', 'beretika', 'dan', 'produktif', 'kala']</t>
+          <t>['pemerintah', 'indonesia', 'berupaya', 'keras', 'melakukan', 'percepatan', 'penanganan', 'krisis', 'kesehatan', 'penanganan', 'dan', 'ppkm']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['pemerintah', 'indonesia', 'berupaya', 'keras', 'melakukan', 'percepatan', 'penanganan', 'krisis', 'kesehatan', 'penanganan', 'dan', 'ppkm']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['semangat', 'uu', 'ite', 'menjaga', 'ruang', 'digital', 'indonesia', 'bersih', 'sehat', 'beretika', 'produktif']</t>
+          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['semangat', 'uu', 'ite', 'jaga', 'ruang', 'digital', 'indonesia', 'bersih', 'sehat', 'etika', 'produktif']</t>
+          <t>['pemerintah', 'indonesia', 'berupaya', 'keras', 'percepatan', 'penanganan', 'krisis', 'kesehatan', 'penanganan', 'ppkm']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['perintah', 'indonesia', 'upaya', 'keras', 'cepat', 'tangan', 'krisis', 'sehat', 'tangan', 'ppkm']</t>
         </is>
       </c>
     </row>
@@ -2203,34 +2448,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>21518</v>
+        <v>31289</v>
       </c>
       <c r="C50" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>belakangan ini sejumlah warga saling melapor ke polisi dengan uu ite sebagai salah satu rujukan hukumnya saya me</t>
+          <t>sejumlah lembaga keuangan dunia memproyeksikan pertumbuhan ekonomi indonesia tahun akan positif beberapa indi</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['belakangan', 'ini', 'sejumlah', 'warga', 'saling', 'melapor', 'ke', 'polisi', 'dengan', 'uu', 'ite', 'sebagai', 'salah', 'satu', 'rujukan', 'hukumnya', 'saya', 'me']</t>
+          <t>['sejumlah', 'lembaga', 'keuangan', 'dunia', 'memproyeksikan', 'pertumbuhan', 'ekonomi', 'indonesia', 'tahun', 'akan', 'positif', 'beberapa', 'indi']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['sejumlah', 'lembaga', 'keuangan', 'dunia', 'memproyeksikan', 'pertumbuhan', 'ekonomi', 'indonesia', 'tahun', 'akan', 'positif', 'beberapa', 'indi']</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['warga', 'melapor', 'polisi', 'uu', 'ite', 'salah', 'rujukan', 'hukumnya', 'me']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['warga', 'lapor', 'polisi', 'uu', 'ite', 'salah', 'rujuk', 'hukum', 'me']</t>
+          <t>['lembaga', 'keuangan', 'dunia', 'memproyeksikan', 'pertumbuhan', 'ekonomi', 'indonesia', 'positif', 'indi']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['lembaga', 'uang', 'dunia', 'proyeksi', 'tumbuh', 'ekonomi', 'indonesia', 'positif', 'indi']</t>
         </is>
       </c>
     </row>
@@ -2239,34 +2489,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>21519</v>
+        <v>31290</v>
       </c>
       <c r="C51" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">saya melantik gubernur dan wakil gubernur untuk dua provinsi pagi ini yakni kalimantan utara dan sulawesi utara </t>
+          <t>tiga pasang gubernur dan wakil gubernur yang terpilih di pilkada lalu saya lantik di istana negara hari ini mere</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['saya', 'melantik', 'gubernur', 'dan', 'wakil', 'gubernur', 'untuk', 'dua', 'provinsi', 'pagi', 'ini', 'yakni', 'kalimantan', 'utara', 'dan', 'sulawesi', 'utara']</t>
+          <t>['tiga', 'pasang', 'gubernur', 'dan', 'wakil', 'gubernur', 'yang', 'terpilih', 'di', 'pilkada', 'lalu', 'saya', 'lantik', 'di', 'istana', 'negara', 'hari', 'ini', 'mere']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
+          <t>['tiga', 'pasang', 'gubernur', 'dan', 'wakil', 'gubernur', 'yang', 'terpilih', 'di', 'pilihan, kepala, daerah', 'lalu', 'saya', 'lantik', 'di', 'istana', 'negara', 'hari', 'ini', 'mere']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['melantik', 'gubernur', 'wakil', 'gubernur', 'provinsi', 'pagi', 'kalimantan', 'utara', 'sulawesi', 'utara']</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['lantik', 'gubernur', 'wakil', 'gubernur', 'provinsi', 'pagi', 'kalimantan', 'utara', 'sulawesi', 'utara']</t>
+          <t>['pasang', 'gubernur', 'wakil', 'gubernur', 'terpilih', 'pilihan, kepala, daerah', 'lantik', 'istana', 'negara', 'mere']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['pasang', 'gubernur', 'wakil', 'gubernur', 'pilih', 'pilih kepala daerah', 'lantik', 'istana', 'negara', 'mere']</t>
         </is>
       </c>
     </row>
@@ -2275,34 +2530,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>21520</v>
+        <v>31291</v>
       </c>
       <c r="C52" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>bendungan tukul di pacitan jawa timur yang baru saja saya resmikan ini dibangun untuk pengendalian banjir penyed</t>
+          <t>tiba juga giliran para wartawan menerima vaksinasi covid seharihari mereka bekerja di lapangan berhubungan de</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['bendungan', 'tukul', 'di', 'pacitan', 'jawa', 'timur', 'yang', 'baru', 'saja', 'saya', 'resmikan', 'ini', 'dibangun', 'untuk', 'pengendalian', 'banjir', 'penyed']</t>
+          <t>['tiba', 'juga', 'giliran', 'para', 'wartawan', 'menerima', 'vaksinasi', 'covid', 'seharihari', 'mereka', 'bekerja', 'di', 'lapangan', 'berhubungan', 'de']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['tiba', 'juga', 'giliran', 'para', 'wartawan', 'menerima', 'vaksinasi', 'covid', 'seharihari', 'mereka', 'bekerja', 'di', 'lapangan', 'berhubungan', 'deh']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['bendungan', 'tukul', 'pacitan', 'jawa', 'timur', 'resmikan', 'dibangun', 'pengendalian', 'banjir', 'penyed']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['bendung', 'tukul', 'pacitan', 'jawa', 'timur', 'resmi', 'bangun', 'kendali', 'banjir', 'penyed']</t>
+          <t>['giliran', 'wartawan', 'menerima', 'vaksinasi', 'covid', 'seharihari', 'lapangan', 'berhubungan', 'deh']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['gilir', 'wartawan', 'terima', 'vaksinasi', 'covid', 'seharihari', 'lapang', 'hubung', 'deh']</t>
         </is>
       </c>
     </row>
@@ -2311,34 +2571,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>21521</v>
+        <v>31292</v>
       </c>
       <c r="C53" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>selamat pagi saya bertolak menuju jawa timur hari ini hendak meresmikan salah satu proyek strategis nasional yait</t>
+          <t>sabtu malam lalu tanggul sungai citarum di bekasi jebol di tiga titik limpasan air merendam rumahrumah sekitarn</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['selamat', 'pagi', 'saya', 'bertolak', 'menuju', 'jawa', 'timur', 'hari', 'ini', 'hendak', 'meresmikan', 'salah', 'satu', 'proyek', 'strategis', 'nasional', 'yait']</t>
+          <t>['sabtu', 'malam', 'lalu', 'tanggul', 'sungai', 'citarum', 'di', 'bekasi', 'jebol', 'di', 'tiga', 'titik', 'limpasan', 'air', 'merendam', 'rumahrumah', 'sekitarn']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['sabtu', 'malam', 'lalu', 'tanggul', 'sungai', 'citarum', 'di', 'bekasi', 'jebol', 'di', 'tiga', 'titik', 'limpasan', 'air', 'merendam', 'rumahrumah', 'sekitarn']</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['selamat', 'pagi', 'bertolak', 'jawa', 'timur', 'meresmikan', 'salah', 'proyek', 'strategis', 'nasional', 'yait']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['selamat', 'pagi', 'tolak', 'jawa', 'timur', 'resmi', 'salah', 'proyek', 'strategis', 'nasional', 'yait']</t>
+          <t>['sabtu', 'malam', 'tanggul', 'sungai', 'citarum', 'bekasi', 'jebol', 'titik', 'limpasan', 'air', 'merendam', 'rumahrumah', 'sekitarn']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['sabtu', 'malam', 'tanggul', 'sungai', 'citarum', 'bekas', 'jebol', 'titik', 'limpas', 'air', 'rendam', 'rumahrumah', 'sekitarn']</t>
         </is>
       </c>
     </row>
@@ -2347,34 +2612,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>21522</v>
+        <v>31293</v>
       </c>
       <c r="C54" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>lebih satu abad lamanya bio farma menjadi saksi dan berjuang mengakhiri pandemi dari zaman ke zaman dari cacar api</t>
+          <t>kunci kemakmuran ntt adalah air begitu ada air semua bisa ditanam karena itu pemerintah membangun tujuh bendung</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['lebih', 'satu', 'abad', 'lamanya', 'bio', 'farma', 'menjadi', 'saksi', 'dan', 'berjuang', 'mengakhiri', 'pandemi', 'dari', 'zaman', 'ke', 'zaman', 'dari', 'cacar', 'api']</t>
+          <t>['kunci', 'kemakmuran', 'ntt', 'adalah', 'air', 'begitu', 'ada', 'air', 'semua', 'bisa', 'ditanam', 'karena', 'itu', 'pemerintah', 'membangun', 'tujuh', 'bendung']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['kunci', 'kemakmuran', 'ntt', 'adalah', 'air', 'begitu', 'ada', 'air', 'semua', 'bisa', 'ditanam', 'karena', 'itu', 'pemerintah', 'membangun', 'tujuh', 'bendung']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['abad', 'bio', 'farma', 'saksi', 'berjuang', 'pandemi', 'zaman', 'zaman', 'cacar', 'api']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['abad', 'bio', 'farma', 'saksi', 'juang', 'pandemi', 'zaman', 'zaman', 'cacar', 'api']</t>
+          <t>['kunci', 'kemakmuran', 'ntt', 'air', 'air', 'ditanam', 'pemerintah', 'membangun', 'tujuh', 'bendung']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['kunci', 'makmur', 'ntt', 'air', 'air', 'tanam', 'perintah', 'bangun', 'tujuh', 'bendung']</t>
         </is>
       </c>
     </row>
@@ -2383,34 +2653,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>21523</v>
+        <v>31294</v>
       </c>
       <c r="C55" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>hari raya imlek ini kita tak leluasa untuk merayakannya dengan sukacita bersamasama tapi semua itu tak mengurangi</t>
+          <t>nusa tenggara timur kini menatap masa depan yang lebih cerah dengan kehadiran lumbung pangan baru di kabupaten sumb</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['hari', 'raya', 'imlek', 'ini', 'kita', 'tak', 'leluasa', 'untuk', 'merayakannya', 'dengan', 'sukacita', 'bersamasama', 'tapi', 'semua', 'itu', 'tak', 'mengurangi']</t>
+          <t>['nusa', 'tenggara', 'timur', 'kini', 'menatap', 'masa', 'depan', 'yang', 'lebih', 'cerah', 'dengan', 'kehadiran', 'lumbung', 'pangan', 'baru', 'di', 'kabupaten', 'sumb']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['nusa', 'tenggara', 'timur', 'kini', 'menatap', 'masa', 'depan', 'yang', 'lebih', 'cerah', 'dengan', 'kehadiran', 'lumbung', 'pangan', 'baru', 'di', 'kabupaten', 'sumb']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['raya', 'imlek', 'leluasa', 'merayakannya', 'sukacita', 'bersamasama', 'mengurangi']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['raya', 'imlek', 'leluasa', 'raya', 'sukacita', 'bersamasama', 'kurang']</t>
+          <t>['nusa', 'tenggara', 'timur', 'menatap', 'cerah', 'kehadiran', 'lumbung', 'pangan', 'kabupaten', 'sumb']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['nusa', 'tenggara', 'timur', 'tatap', 'cerah', 'hadir', 'lumbung', 'pangan', 'kabupaten', 'sumb']</t>
         </is>
       </c>
     </row>
@@ -2419,34 +2694,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>21524</v>
+        <v>31295</v>
       </c>
       <c r="C56" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve">saya membuka munas apeksi hari ini dengan pesan kepada seluruh pemerintah kota untuk memprioritaskan empat hal </t>
+          <t>vaksinasi massal covid bagi tenaga pendidik dan kependidikan dimulai hari ini di sman jakarta diikuti provin</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['saya', 'membuka', 'munas', 'apeksi', 'hari', 'ini', 'dengan', 'pesan', 'kepada', 'seluruh', 'pemerintah', 'kota', 'untuk', 'memprioritaskan', 'empat', 'hal']</t>
+          <t>['vaksinasi', 'massal', 'covid', 'bagi', 'tenaga', 'pendidik', 'dan', 'kependidikan', 'dimulai', 'hari', 'ini', 'di', 'sman', 'jakarta', 'diikuti', 'provin']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t>['vaksinasi', 'massal', 'covid', 'bagi', 'tenaga', 'pendidik', 'dan', 'kependidikan', 'dimulai', 'hari', 'ini', 'di', 'sekolah, menengah, atas, negeri', 'jakarta', 'diikuti', 'provin']</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>['membuka', 'munas', 'apeksi', 'pesan', 'pemerintah', 'kota', 'memprioritaskan']</t>
-        </is>
-      </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['buka', 'munas', 'apeksi', 'pesan', 'perintah', 'kota', 'prioritas']</t>
+          <t>['vaksinasi', 'massal', 'covid', 'tenaga', 'pendidik', 'kependidikan', 'sekolah, menengah, atas, negeri', 'jakarta', 'diikuti', 'provin']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['vaksinasi', 'massal', 'covid', 'tenaga', 'didik', 'didik', 'sekolah tengah atas negeri', 'jakarta', 'ikut', 'provin']</t>
         </is>
       </c>
     </row>
@@ -2455,34 +2735,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>21525</v>
+        <v>31296</v>
       </c>
       <c r="C57" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>menghadapi tantangan sulit pandemi ini insan pers tetap di garis terdepan mengabarkan situasi dan jadi jembatan ko</t>
+          <t>bendungan napun gete berkapasitas tampung hingga juta  dengan luas genangan ha saya berharap bendu</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['menghadapi', 'tantangan', 'sulit', 'pandemi', 'ini', 'insan', 'pers', 'tetap', 'di', 'garis', 'terdepan', 'mengabarkan', 'situasi', 'dan', 'jadi', 'jembatan', 'ko']</t>
+          <t>['bendungan', 'napun', 'gete', 'berkapasitas', 'tampung', 'hingga', 'juta', 'dengan', 'luas', 'genangan', 'ha', 'saya', 'berharap', 'bendu']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['bendungan', 'napun', 'gete', 'berkapasitas', 'tampung', 'hingga', 'juta', 'dengan', 'luas', 'genangan', 'apa', 'saya', 'berharap', 'bendu']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['menghadapi', 'tantangan', 'sulit', 'pandemi', 'insan', 'pers', 'garis', 'terdepan', 'mengabarkan', 'situasi', 'jembatan', 'ko']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['hadap', 'tantang', 'sulit', 'pandemi', 'insan', 'pers', 'garis', 'depan', 'abar', 'situasi', 'jembatan', 'ko']</t>
+          <t>['bendungan', 'napun', 'gete', 'berkapasitas', 'tampung', 'juta', 'luas', 'genangan', 'berharap', 'bendu']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['bendung', 'napun', 'gete', 'kapasitas', 'tampung', 'juta', 'luas', 'genang', 'harap', 'bendu']</t>
         </is>
       </c>
     </row>
@@ -2491,34 +2776,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>21526</v>
+        <v>31297</v>
       </c>
       <c r="C58" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>pers indonesia juga terimbas pandemi tapi tetap bertanggung jawab sebagai penjernih informasi di tengah lautan ber</t>
+          <t>kunci kemakmuran ntt adalah air begitu ada air semua bisa ditanam untuk itu tidak tanggungtanggung tujuh bend</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['pers', 'indonesia', 'juga', 'terimbas', 'pandemi', 'tapi', 'tetap', 'bertanggung', 'jawab', 'sebagai', 'penjernih', 'informasi', 'di', 'tengah', 'lautan', 'ber']</t>
+          <t>['kunci', 'kemakmuran', 'ntt', 'adalah', 'air', 'begitu', 'ada', 'air', 'semua', 'bisa', 'ditanam', 'untuk', 'itu', 'tidak', 'tanggungtanggung', 'tujuh', 'bend']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['kunci', 'kemakmuran', 'ntt', 'adalah', 'air', 'begitu', 'ada', 'air', 'semua', 'bisa', 'ditanam', 'untuk', 'itu', 'tidak', 'tanggungtanggung', 'tujuh', 'bend']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['pers', 'indonesia', 'terimbas', 'pandemi', 'bertanggung', 'penjernih', 'informasi', 'lautan', 'ber']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['pers', 'indonesia', 'imbas', 'pandemi', 'tanggung', 'jernih', 'informasi', 'laut', 'ber']</t>
+          <t>['kunci', 'kemakmuran', 'ntt', 'air', 'air', 'ditanam', 'tanggungtanggung', 'tujuh', 'bend']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['kunci', 'makmur', 'ntt', 'air', 'air', 'tanam', 'tanggungtanggung', 'tujuh', 'bend']</t>
         </is>
       </c>
     </row>
@@ -2527,34 +2817,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>21527</v>
+        <v>31298</v>
       </c>
       <c r="C59" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>setahun dalam selubung pandemi tentu ada rasa bosan lelah dan sedih kita sama merindukan suasana normal berk</t>
+          <t>saya menginstruksikan menteri pupr melihat potensi pembangunan bendungan dan menteri pertanian memberi bantuan ala</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['setahun', 'dalam', 'selubung', 'pandemi', 'tentu', 'ada', 'rasa', 'bosan', 'lelah', 'dan', 'sedih', 'kita', 'sama', 'merindukan', 'suasana', 'normal', 'berk']</t>
+          <t>['saya', 'menginstruksikan', 'menteri', 'pupr', 'melihat', 'potensi', 'pembangunan', 'bendungan', 'dan', 'menteri', 'pertanian', 'memberi', 'bantuan', 'ala']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['saya', 'menginstruksikan', 'menteri', 'pekerjaan, umum, dan, perumahan, rakyat', 'melihat', 'potensi', 'pembangunan', 'bendungan', 'dan', 'menteri', 'pertanian', 'memberi', 'bantuan', 'ala']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['setahun', 'selubung', 'pandemi', 'bosan', 'lelah', 'sedih', 'merindukan', 'suasana', 'normal', 'berk']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['tahun', 'selubung', 'pandemi', 'bosan', 'lelah', 'sedih', 'rindu', 'suasana', 'normal', 'berk']</t>
+          <t>['menginstruksikan', 'menteri', 'pekerjaan, umum, dan, perumahan, rakyat', 'potensi', 'pembangunan', 'bendungan', 'menteri', 'pertanian', 'bantuan', 'ala']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['instruksi', 'menteri', 'kerja umum dan rumah rakyat', 'potensi', 'bangun', 'bendung', 'menteri', 'tani', 'bantu', 'ala']</t>
         </is>
       </c>
     </row>
@@ -2563,34 +2858,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>21528</v>
+        <v>31299</v>
       </c>
       <c r="C60" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>penting bagi semua negara asean untuk terus menghormati prinsipprinsip piagam asean terutama prinsip rule of law</t>
+          <t>hujan lebat di desa makata keri sumba tengah saat saya datang meninjau lumbung pangan baru di ntt ini siang tadi</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['penting', 'bagi', 'semua', 'negara', 'asean', 'untuk', 'terus', 'menghormati', 'prinsipprinsip', 'piagam', 'asean', 'terutama', 'prinsip', 'rule', 'of', 'law']</t>
+          <t>['hujan', 'lebat', 'di', 'desa', 'makata', 'keri', 'sumba', 'tengah', 'saat', 'saya', 'datang', 'meninjau', 'lumbung', 'pangan', 'baru', 'di', 'ntt', 'ini', 'siang', 'tadi']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['hujan', 'lebat', 'di', 'desa', 'makata', 'keri', 'sumba', 'tengah', 'saat', 'saya', 'datang', 'meninjau', 'lumbung', 'pangan', 'baru', 'di', 'ntt', 'ini', 'siang', 'tadi']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['negara', 'asean', 'menghormati', 'prinsipprinsip', 'piagam', 'asean', 'prinsip', 'rule', 'of', 'law']</t>
+          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['negara', 'asean', 'hormat', 'prinsipprinsip', 'piagam', 'asean', 'prinsip', 'rule', 'of', 'law']</t>
+          <t>['hujan', 'lebat', 'desa', 'makata', 'keri', 'sumba', 'meninjau', 'lumbung', 'pangan', 'ntt', 'siang']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['hujan', 'lebat', 'desa', 'makata', 'keri', 'sumba', 'tinjau', 'lumbung', 'pangan', 'ntt', 'siang']</t>
         </is>
       </c>
     </row>
@@ -2599,34 +2899,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>21529</v>
+        <v>31300</v>
       </c>
       <c r="C61" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>saya dan pm malaysia tan sri muhyiddin yassin berharap perbedaan politik yang terjadi di myanmar dapat diselesaikan</t>
+          <t>sepagi ini saya telah meninggalkan jakarta menuju nusa tenggara timur untuk kunjungan selama sehari saya hendak</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['saya', 'dan', 'pm', 'malaysia', 'tan', 'sri', 'muhyiddin', 'yassin', 'berharap', 'perbedaan', 'politik', 'yang', 'terjadi', 'di', 'myanmar', 'dapat', 'diselesaikan']</t>
+          <t>['sepagi', 'ini', 'saya', 'telah', 'meninggalkan', 'jakarta', 'menuju', 'nusa', 'tenggara', 'timur', 'untuk', 'kunjungan', 'selama', 'sehari', 'saya', 'hendak']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['sepagi', 'ini', 'saya', 'telah', 'meninggalkan', 'jakarta', 'menuju', 'nusa', 'tenggara', 'timur', 'untuk', 'kunjungan', 'selama', 'sehari', 'saya', 'hendak']</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['pm', 'malaysia', 'tan', 'sri', 'muhyiddin', 'yassin', 'berharap', 'perbedaan', 'politik', 'myanmar', 'diselesaikan']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['pm', 'malaysia', 'tan', 'sri', 'muhyiddin', 'yassin', 'harap', 'beda', 'politik', 'myanmar', 'selesai']</t>
+          <t>['sepagi', 'meninggalkan', 'jakarta', 'nusa', 'tenggara', 'timur', 'kunjungan', 'sehari']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['pagi', 'tinggal', 'jakarta', 'nusa', 'tenggara', 'timur', 'kunjung', 'hari']</t>
         </is>
       </c>
     </row>
@@ -2635,34 +2940,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>21530</v>
+        <v>31301</v>
       </c>
       <c r="C62" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>kami juga membahas mengenai isu sawit indonesia akan terus berjuang untuk melawan diskriminasi terhadap sawit dan</t>
+          <t>saya melantik para anggota dewan pengawas beserta direksi bpjs kesehatan dan bpjs ketenagakerjaan masa jabatan</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['kami', 'juga', 'membahas', 'mengenai', 'isu', 'sawit', 'indonesia', 'akan', 'terus', 'berjuang', 'untuk', 'melawan', 'diskriminasi', 'terhadap', 'sawit', 'dan']</t>
+          <t>['saya', 'melantik', 'para', 'anggota', 'dewan', 'pengawas', 'beserta', 'direksi', 'bpjs', 'kesehatan', 'dan', 'bpjs', 'ketenagakerjaan', 'masa', 'jabatan']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['saya', 'melantik', 'para', 'anggota', 'dewan', 'pengawas', 'beserta', 'direksi', 'badan, penyelenggara, jaminan, sosial', 'kesehatan', 'dan', 'badan, penyelenggara, jaminan, sosial', 'ketenagakerjaan', 'masa', 'jabatan']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['membahas', 'isu', 'sawit', 'indonesia', 'berjuang', 'melawan', 'diskriminasi', 'sawit']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['bahas', 'isu', 'sawit', 'indonesia', 'juang', 'lawan', 'diskriminasi', 'sawit']</t>
+          <t>['melantik', 'anggota', 'dewan', 'pengawas', 'beserta', 'direksi', 'badan, penyelenggara, jaminan, sosial', 'kesehatan', 'badan, penyelenggara, jaminan, sosial', 'ketenagakerjaan', 'jabatan']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['lantik', 'anggota', 'dewan', 'awas', 'serta', 'direksi', 'badan selenggara jamin sosial', 'sehat', 'badan selenggara jamin sosial', 'ketenagakerjaan', 'jabat']</t>
         </is>
       </c>
     </row>
@@ -2671,34 +2981,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>21531</v>
+        <v>31302</v>
       </c>
       <c r="C63" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>pembicaraan saya dengan pm malaysia tan sri muhyiddin yassin tadi berlangsung baik terbuka dan komprehensif kami</t>
+          <t>pengucapan sumpah sembilan anggota ombudsman republik indonesia siang ini di jakarta mereka akan mengawa</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['pembicaraan', 'saya', 'dengan', 'pm', 'malaysia', 'tan', 'sri', 'muhyiddin', 'yassin', 'tadi', 'berlangsung', 'baik', 'terbuka', 'dan', 'komprehensif', 'kami']</t>
+          <t>['pengucapan', 'sumpah', 'sembilan', 'anggota', 'ombudsman', 'republik', 'indonesia', 'siang', 'ini', 'di', 'jakarta', 'mereka', 'akan', 'mengawa']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['pengucapan', 'sumpah', 'sembilan', 'anggota', 'ombudsman', 'republik', 'indonesia', 'siang', 'ini', 'di', 'jakarta', 'mereka', 'akan', 'mengawa']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['pembicaraan', 'pm', 'malaysia', 'tan', 'sri', 'muhyiddin', 'yassin', 'terbuka', 'komprehensif']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['bicara', 'pm', 'malaysia', 'tan', 'sri', 'muhyiddin', 'yassin', 'buka', 'komprehensif']</t>
+          <t>['pengucapan', 'sumpah', 'sembilan', 'anggota', 'ombudsman', 'republik', 'indonesia', 'siang', 'jakarta', 'mengawa']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['ucap', 'sumpah', 'sembilan', 'anggota', 'ombudsman', 'republik', 'indonesia', 'siang', 'jakarta', 'awa']</t>
         </is>
       </c>
     </row>
@@ -2707,34 +3022,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>21532</v>
+        <v>31303</v>
       </c>
       <c r="C64" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>ibadah salat jumat hari ini di masjid baiturrahim kompleks istana dihadiri perdana menteri malaysia tan sri muh</t>
+          <t>untuk anda semua di seluruh tanah air pripun kabare indonesia sungguh kaya akan keragaman dihuni lebih seribu</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['ibadah', 'salat', 'jumat', 'hari', 'ini', 'di', 'masjid', 'baiturrahim', 'kompleks', 'istana', 'dihadiri', 'perdana', 'menteri', 'malaysia', 'tan', 'sri', 'muh']</t>
+          <t>['untuk', 'anda', 'semua', 'di', 'seluruh', 'tanah', 'air', 'pripun', 'kabare', 'indonesia', 'sungguh', 'kaya', 'akan', 'keragaman', 'dihuni', 'lebih', 'seribu']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
+          <t>['untuk', 'anda', 'semua', 'di', 'seluruh', 'tanah', 'air', 'pripun', 'kabare', 'indonesia', 'sungguh', 'kayak', 'akan', 'keragaman', 'dihuni', 'lebih', 'seribu']</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>['ibadah', 'salat', 'jumat', 'masjid', 'baiturrahim', 'kompleks', 'istana', 'dihadiri', 'perdana', 'menteri', 'malaysia', 'tan', 'sri', 'muh']</t>
-        </is>
-      </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['ibadah', 'salat', 'jumat', 'masjid', 'baiturrahim', 'kompleks', 'istana', 'hadir', 'perdana', 'menteri', 'malaysia', 'tan', 'sri', 'muh']</t>
+          <t>['tanah', 'air', 'pripun', 'kabare', 'indonesia', 'sungguh', 'kayak', 'keragaman', 'dihuni', 'seribu']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['tanah', 'air', 'pripun', 'kabare', 'indonesia', 'sungguh', 'kayak', 'ragam', 'huni', 'ribu']</t>
         </is>
       </c>
     </row>
@@ -2743,34 +3063,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>21533</v>
+        <v>31304</v>
       </c>
       <c r="C65" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>selamat datang perdana menteri malaysia tan sri muhyiddin yassin</t>
+          <t>lima tahun dibangun bendungan tapin dengan luas genangan ha di kalimantan selatan telah selesai saya meresmik</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['selamat', 'datang', 'perdana', 'menteri', 'malaysia', 'tan', 'sri', 'muhyiddin', 'yassin']</t>
+          <t>['lima', 'tahun', 'dibangun', 'bendungan', 'tapin', 'dengan', 'luas', 'genangan', 'ha', 'di', 'kalimantan', 'selatan', 'telah', 'selesai', 'saya', 'meresmik']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['lima', 'tahun', 'dibangun', 'bendungan', 'tapin', 'dengan', 'luas', 'genangan', 'apa', 'di', 'kalimantan', 'selatan', 'telah', 'selesai', 'saya', 'meresmik']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['selamat', 'perdana', 'menteri', 'malaysia', 'tan', 'sri', 'muhyiddin', 'yassin']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['selamat', 'perdana', 'menteri', 'malaysia', 'tan', 'sri', 'muhyiddin', 'yassin']</t>
+          <t>['dibangun', 'bendungan', 'tapin', 'luas', 'genangan', 'kalimantan', 'selatan', 'selesai', 'meresmik']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['bangun', 'bendung', 'tapin', 'luas', 'genang', 'kalimantan', 'selatan', 'selesai', 'meresmik']</t>
         </is>
       </c>
     </row>
@@ -2779,34 +3104,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>21534</v>
+        <v>31305</v>
       </c>
       <c r="C66" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>saya ingin ada penyempurnaan detail pelaksanaan kebijakan yang perlu diperbaiki misalnya pentingnya pembatasan ke</t>
+          <t>laporan yang saya terima bahkan sebelum diresmikan pun kehadiran bendungan tapin sudah mengurangi banjir di daera</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['saya', 'ingin', 'ada', 'penyempurnaan', 'detail', 'pelaksanaan', 'kebijakan', 'yang', 'perlu', 'diperbaiki', 'misalnya', 'pentingnya', 'pembatasan', 'ke']</t>
+          <t>['laporan', 'yang', 'saya', 'terima', 'bahkan', 'sebelum', 'diresmikan', 'pun', 'kehadiran', 'bendungan', 'tapin', 'sudah', 'mengurangi', 'banjir', 'di', 'daera']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['laporan', 'yang', 'saya', 'terima', 'bahkan', 'sebelum', 'diresmikan', 'pun', 'kehadiran', 'bendungan', 'tapin', 'sudah', 'mengurangi', 'banjir', 'di', 'daera']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['penyempurnaan', 'detail', 'pelaksanaan', 'kebijakan', 'diperbaiki', 'pembatasan']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['sempurna', 'detail', 'laksana', 'bijak', 'baik', 'batas']</t>
+          <t>['laporan', 'terima', 'diresmikan', 'kehadiran', 'bendungan', 'tapin', 'mengurangi', 'banjir', 'daera']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['lapor', 'terima', 'resmi', 'hadir', 'bendung', 'tapin', 'kurang', 'banjir', 'daera']</t>
         </is>
       </c>
     </row>
@@ -2815,34 +3145,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>21535</v>
+        <v>31306</v>
       </c>
       <c r="C67" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>berbagai langkah sudah kita laksanakan untuk menekan laju penularan covid rabu kemarin saya menggelar pertem</t>
+          <t>lima tahun dibangun bendungan tapin di kalimantan selatan telah selesai dan saya resmikan hari ini seraya ikut me</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['berbagai', 'langkah', 'sudah', 'kita', 'laksanakan', 'untuk', 'menekan', 'laju', 'penularan', 'covid', 'rabu', 'kemarin', 'saya', 'menggelar', 'pertem']</t>
+          <t>['lima', 'tahun', 'dibangun', 'bendungan', 'tapin', 'di', 'kalimantan', 'selatan', 'telah', 'selesai', 'dan', 'saya', 'resmikan', 'hari', 'ini', 'seraya', 'ikut', 'me']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['lima', 'tahun', 'dibangun', 'bendungan', 'tapin', 'di', 'kalimantan', 'selatan', 'telah', 'selesai', 'dan', 'saya', 'resmikan', 'hari', 'ini', 'seraya', 'ikut', 'me']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['langkah', 'laksanakan', 'menekan', 'laju', 'penularan', 'covid', 'rabu', 'kemarin', 'menggelar', 'pertem']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['langkah', 'laksana', 'tekan', 'laju', 'tular', 'covid', 'rabu', 'kemarin', 'gelar', 'tem']</t>
+          <t>['dibangun', 'bendungan', 'tapin', 'kalimantan', 'selatan', 'selesai', 'resmikan', 'seraya', 'me']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['bangun', 'bendung', 'tapin', 'kalimantan', 'selatan', 'selesai', 'resmi', 'seraya', 'me']</t>
         </is>
       </c>
     </row>
@@ -2851,34 +3186,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>21536</v>
+        <v>31307</v>
       </c>
       <c r="C68" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>suasana pelaksanaan vaksinasi massal covid untuk para tenaga kesehatan di istora senayan jakarta hari ini</t>
+          <t>selamat pagi saya bertolak menuju provinsi kalimantan selatan pagi ini untuk kunjungan sehari di kabupaten tapin</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['suasana', 'pelaksanaan', 'vaksinasi', 'massal', 'covid', 'untuk', 'para', 'tenaga', 'kesehatan', 'di', 'istora', 'senayan', 'jakarta', 'hari', 'ini']</t>
+          <t>['selamat', 'pagi', 'saya', 'bertolak', 'menuju', 'provinsi', 'kalimantan', 'selatan', 'pagi', 'ini', 'untuk', 'kunjungan', 'sehari', 'di', 'kabupaten', 'tapin']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['selamat', 'pagi', 'saya', 'bertolak', 'menuju', 'provinsi', 'kalimantan', 'selatan', 'pagi', 'ini', 'untuk', 'kunjungan', 'sehari', 'di', 'kabupaten', 'tapin']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['suasana', 'pelaksanaan', 'vaksinasi', 'massal', 'covid', 'tenaga', 'kesehatan', 'istora', 'senayan', 'jakarta']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['suasana', 'laksana', 'vaksinasi', 'massal', 'covid', 'tenaga', 'sehat', 'istora', 'senayan', 'jakarta']</t>
+          <t>['selamat', 'pagi', 'bertolak', 'provinsi', 'kalimantan', 'selatan', 'pagi', 'kunjungan', 'sehari', 'kabupaten', 'tapin']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['selamat', 'pagi', 'tolak', 'provinsi', 'kalimantan', 'selatan', 'pagi', 'kunjung', 'hari', 'kabupaten', 'tapin']</t>
         </is>
       </c>
     </row>
@@ -2887,34 +3227,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>21537</v>
+        <v>31308</v>
       </c>
       <c r="C69" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>saya menerima surat kepercayaan dari tujuh duta besar luar biasa dan berkuasa penuh dari negara sahabat hari ini di</t>
+          <t xml:space="preserve">vaksinasi massal covid bagi pelayan dan pekerja publik dimulai hari ini dari pasar tanah abang jakarta apa </t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['saya', 'menerima', 'surat', 'kepercayaan', 'dari', 'tujuh', 'duta', 'besar', 'luar', 'biasa', 'dan', 'berkuasa', 'penuh', 'dari', 'negara', 'sahabat', 'hari', 'ini', 'di']</t>
+          <t>['vaksinasi', 'massal', 'covid', 'bagi', 'pelayan', 'dan', 'pekerja', 'publik', 'dimulai', 'hari', 'ini', 'dari', 'pasar', 'tanah', 'abang', 'jakarta', 'apa']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['vaksinasi', 'massal', 'covid', 'bagi', 'pelayan', 'dan', 'pekerja', 'publik', 'dimulai', 'hari', 'ini', 'dari', 'pasar', 'tanah', 'abang', 'jakarta', 'apa']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['menerima', 'surat', 'kepercayaan', 'tujuh', 'duta', 'berkuasa', 'penuh', 'negara', 'sahabat']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['terima', 'surat', 'percaya', 'tujuh', 'duta', 'kuasa', 'penuh', 'negara', 'sahabat']</t>
+          <t>['vaksinasi', 'massal', 'covid', 'pelayan', 'pekerja', 'publik', 'pasar', 'tanah', 'abang', 'jakarta']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['vaksinasi', 'massal', 'covid', 'layan', 'kerja', 'publik', 'pasar', 'tanah', 'abang', 'jakarta']</t>
         </is>
       </c>
     </row>
@@ -2923,34 +3268,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>21538</v>
+        <v>31309</v>
       </c>
       <c r="C70" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>kawasan mandalika di lombok kian menggeliat maju setelah jadi kawasan ekonomi khusus dan lokasi pembangunan sirk</t>
+          <t>vaksinasi massal covid tahap kedua dimulai hari ini di pasar tanah abang jakarta untuk pedagang vaksin</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['kawasan', 'mandalika', 'di', 'lombok', 'kian', 'menggeliat', 'maju', 'setelah', 'jadi', 'kawasan', 'ekonomi', 'khusus', 'dan', 'lokasi', 'pembangunan', 'sirk']</t>
+          <t>['vaksinasi', 'massal', 'covid', 'tahap', 'kedua', 'dimulai', 'hari', 'ini', 'di', 'pasar', 'tanah', 'abang', 'jakarta', 'untuk', 'pedagang', 'vaksin']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['vaksinasi', 'massal', 'covid', 'tahap', 'kedua', 'dimulai', 'hari', 'ini', 'di', 'pasar', 'tanah', 'abang', 'jakarta', 'untuk', 'pedagang', 'vaksin']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['kawasan', 'mandalika', 'lombok', 'kian', 'menggeliat', 'maju', 'kawasan', 'ekonomi', 'khusus', 'lokasi', 'pembangunan', 'sirk']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['kawasan', 'mandalika', 'lombok', 'kian', 'geliat', 'maju', 'kawasan', 'ekonomi', 'khusus', 'lokasi', 'bangun', 'sirk']</t>
+          <t>['vaksinasi', 'massal', 'covid', 'tahap', 'pasar', 'tanah', 'abang', 'jakarta', 'pedagang', 'vaksin']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['vaksinasi', 'massal', 'covid', 'tahap', 'pasar', 'tanah', 'abang', 'jakarta', 'dagang', 'vaksin']</t>
         </is>
       </c>
     </row>
@@ -2959,34 +3309,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>21539</v>
+        <v>31310</v>
       </c>
       <c r="C71" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>hari ini bahan baku vaksin sebanyak juta dosis kembali tiba di indonesia sebelumnya sudah tiba tiga juta dos</t>
+          <t>salah satu amanat uu cipta kerja adalah pembentukan lembaga pengelola dana abadi investasi dalam negeri hari ini</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['hari', 'ini', 'bahan', 'baku', 'vaksin', 'sebanyak', 'juta', 'dosis', 'kembali', 'tiba', 'di', 'indonesia', 'sebelumnya', 'sudah', 'tiba', 'tiga', 'juta', 'dos']</t>
+          <t>['salah', 'satu', 'amanat', 'uu', 'cipta', 'kerja', 'adalah', 'pembentukan', 'lembaga', 'pengelola', 'dana', 'abadi', 'investasi', 'dalam', 'negeri', 'hari', 'ini']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['salah', 'satu', 'amanat', 'undang, undang', 'cipta', 'kerja', 'adalah', 'pembentukan', 'lembaga', 'pengelola', 'dana', 'abadi', 'investasi', 'dalam', 'negeri', 'hari', 'ini']</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['bahan', 'baku', 'vaksin', 'juta', 'dosis', 'indonesia', 'juta', 'dos']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['bahan', 'baku', 'vaksin', 'juta', 'dosis', 'indonesia', 'juta', 'dos']</t>
+          <t>['salah', 'amanat', 'undang, undang', 'cipta', 'kerja', 'pembentukan', 'lembaga', 'pengelola', 'dana', 'abadi', 'investasi', 'negeri']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['salah', 'amanat', 'undang undang', 'cipta', 'kerja', 'bentuk', 'lembaga', 'kelola', 'dana', 'abadi', 'investasi', 'negeri']</t>
         </is>
       </c>
     </row>
@@ -2995,34 +3350,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>21540</v>
+        <v>31311</v>
       </c>
       <c r="C72" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>beginilah suasana pelaksanaan vaksinasi massal covid untuk tenaga kesehatan di kampus ugm yogyakarta pekan lalu</t>
+          <t>semangat awal uu ite adalah untuk menjaga agar ruang digital indonesia bersih sehat beretika dan produktif kala</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['beginilah', 'suasana', 'pelaksanaan', 'vaksinasi', 'massal', 'covid', 'untuk', 'tenaga', 'kesehatan', 'di', 'kampus', 'ugm', 'yogyakarta', 'pekan', 'lalu']</t>
+          <t>['semangat', 'awal', 'uu', 'ite', 'adalah', 'untuk', 'menjaga', 'agar', 'ruang', 'digital', 'indonesia', 'bersih', 'sehat', 'beretika', 'dan', 'produktif', 'kala']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['semangat', 'awal', 'undang, undang', 'informasi, transaksi, elektronik', 'adalah', 'untuk', 'menjaga', 'agar', 'ruang', 'digital', 'indonesia', 'bersih', 'sehat', 'beretika', 'dan', 'produktif', 'kala']</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['suasana', 'pelaksanaan', 'vaksinasi', 'massal', 'covid', 'tenaga', 'kesehatan', 'kampus', 'ugm', 'yogyakarta', 'pekan']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['suasana', 'laksana', 'vaksinasi', 'massal', 'covid', 'tenaga', 'sehat', 'kampus', 'ugm', 'yogyakarta', 'pekan']</t>
+          <t>['semangat', 'undang, undang', 'informasi, transaksi, elektronik', 'menjaga', 'ruang', 'digital', 'indonesia', 'bersih', 'sehat', 'beretika', 'produktif']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['semangat', 'undang undang', 'informasi transaksi elektronik', 'jaga', 'ruang', 'digital', 'indonesia', 'bersih', 'sehat', 'etika', 'produktif']</t>
         </is>
       </c>
     </row>
@@ -3031,34 +3391,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>21541</v>
+        <v>31312</v>
       </c>
       <c r="C73" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>bsi saya harapkan mampu memaksimalkan penggunaan teknologi digital menarik minat generasi muda untuk menjadi nasab</t>
+          <t>belakangan ini sejumlah warga saling melapor ke polisi dengan uu ite sebagai salah satu rujukan hukumnya saya me</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['bsi', 'saya', 'harapkan', 'mampu', 'memaksimalkan', 'penggunaan', 'teknologi', 'digital', 'menarik', 'minat', 'generasi', 'muda', 'untuk', 'menjadi', 'nasab']</t>
+          <t>['belakangan', 'ini', 'sejumlah', 'warga', 'saling', 'melapor', 'ke', 'polisi', 'dengan', 'uu', 'ite', 'sebagai', 'salah', 'satu', 'rujukan', 'hukumnya', 'saya', 'me']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['belakangan', 'ini', 'sejumlah', 'warga', 'saling', 'melapor', 'ke', 'polisi', 'dengan', 'undang, undang', 'informasi, transaksi, elektronik', 'sebagai', 'salah', 'satu', 'rujukan', 'hukumnya', 'saya', 'me']</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['bsi', 'harapkan', 'memaksimalkan', 'penggunaan', 'teknologi', 'digital', 'menarik', 'minat', 'generasi', 'muda', 'nasab']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['bsi', 'harap', 'maksimal', 'guna', 'teknologi', 'digital', 'tarik', 'minat', 'generasi', 'muda', 'nasab']</t>
+          <t>['warga', 'melapor', 'polisi', 'undang, undang', 'informasi, transaksi, elektronik', 'salah', 'rujukan', 'hukumnya', 'me']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['warga', 'lapor', 'polisi', 'undang undang', 'informasi transaksi elektronik', 'salah', 'rujuk', 'hukum', 'me']</t>
         </is>
       </c>
     </row>
@@ -3067,34 +3432,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>21542</v>
+        <v>31313</v>
       </c>
       <c r="C74" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t xml:space="preserve">bank syariah indonesia saya resmikan hari ini sebagai penggabungan tiga bank syariah himpunan bank milik negara </t>
+          <t xml:space="preserve">saya melantik gubernur dan wakil gubernur untuk dua provinsi pagi ini yakni kalimantan utara dan sulawesi utara </t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['bank', 'syariah', 'indonesia', 'saya', 'resmikan', 'hari', 'ini', 'sebagai', 'penggabungan', 'tiga', 'bank', 'syariah', 'himpunan', 'bank', 'milik', 'negara']</t>
+          <t>['saya', 'melantik', 'gubernur', 'dan', 'wakil', 'gubernur', 'untuk', 'dua', 'provinsi', 'pagi', 'ini', 'yakni', 'kalimantan', 'utara', 'dan', 'sulawesi', 'utara']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
+          <t>['saya', 'melantik', 'gubernur', 'dan', 'wakil', 'gubernur', 'untuk', 'dua', 'provinsi', 'pagi', 'ini', 'yakni', 'kalimantan', 'utara', 'dan', 'sulawesi', 'utara']</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['bank', 'syariah', 'indonesia', 'resmikan', 'penggabungan', 'bank', 'syariah', 'himpunan', 'bank', 'milik', 'negara']</t>
+          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['bank', 'syariah', 'indonesia', 'resmi', 'gabung', 'bank', 'syariah', 'himpun', 'bank', 'milik', 'negara']</t>
+          <t>['melantik', 'gubernur', 'wakil', 'gubernur', 'provinsi', 'pagi', 'kalimantan', 'utara', 'sulawesi', 'utara']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['lantik', 'gubernur', 'wakil', 'gubernur', 'provinsi', 'pagi', 'kalimantan', 'utara', 'sulawesi', 'utara']</t>
         </is>
       </c>
     </row>
@@ -3103,34 +3473,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>21543</v>
+        <v>31314</v>
       </c>
       <c r="C75" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>kebijakan pembatasan kegiatan masyarakat di tengah pandemi sudah berjalan hampir sebulan hasilnya belum sejalan de</t>
+          <t>bendungan tukul di pacitan jawa timur yang baru saja saya resmikan ini dibangun untuk pengendalian banjir penyed</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['kebijakan', 'pembatasan', 'kegiatan', 'masyarakat', 'di', 'tengah', 'pandemi', 'sudah', 'berjalan', 'hampir', 'sebulan', 'hasilnya', 'belum', 'sejalan', 'de']</t>
+          <t>['bendungan', 'tukul', 'di', 'pacitan', 'jawa', 'timur', 'yang', 'baru', 'saja', 'saya', 'resmikan', 'ini', 'dibangun', 'untuk', 'pengendalian', 'banjir', 'penyed']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['bendungan', 'tukul', 'di', 'pacitan', 'jawa', 'timur', 'yang', 'baru', 'saja', 'saya', 'resmikan', 'ini', 'dibangun', 'untuk', 'pengendalian', 'banjir', 'penyed']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['kebijakan', 'pembatasan', 'kegiatan', 'masyarakat', 'pandemi', 'berjalan', 'sebulan', 'hasilnya', 'sejalan', 'de']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['bijak', 'batas', 'giat', 'masyarakat', 'pandemi', 'jalan', 'bulan', 'hasil', 'jalan', 'de']</t>
+          <t>['bendungan', 'tukul', 'pacitan', 'jawa', 'timur', 'resmikan', 'dibangun', 'pengendalian', 'banjir', 'penyed']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['bendung', 'tukul', 'pacitan', 'jawa', 'timur', 'resmi', 'bangun', 'kendali', 'banjir', 'penyed']</t>
         </is>
       </c>
     </row>
@@ -3139,34 +3514,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>21544</v>
+        <v>31315</v>
       </c>
       <c r="C76" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>di usia tahun nahdlatul ulama tetap berperan besar mencerdaskan kehidupan bangsa menggerakkan semangat nasiona</t>
+          <t>selamat pagi saya bertolak menuju jawa timur hari ini hendak meresmikan salah satu proyek strategis nasional yait</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['di', 'usia', 'tahun', 'nahdlatul', 'ulama', 'tetap', 'berperan', 'besar', 'mencerdaskan', 'kehidupan', 'bangsa', 'menggerakkan', 'semangat', 'nasiona']</t>
+          <t>['selamat', 'pagi', 'saya', 'bertolak', 'menuju', 'jawa', 'timur', 'hari', 'ini', 'hendak', 'meresmikan', 'salah', 'satu', 'proyek', 'strategis', 'nasional', 'yait']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['selamat', 'pagi', 'saya', 'bertolak', 'menuju', 'jawa', 'timur', 'hari', 'ini', 'hendak', 'meresmikan', 'salah', 'satu', 'proyek', 'strategis', 'nasional', 'yait']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['usia', 'nahdlatul', 'ulama', 'berperan', 'mencerdaskan', 'kehidupan', 'bangsa', 'menggerakkan', 'semangat', 'nasiona']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['usia', 'nahdlatul', 'ulama', 'peran', 'cerdas', 'hidup', 'bangsa', 'gerak', 'semangat', 'nasiona']</t>
+          <t>['selamat', 'pagi', 'bertolak', 'jawa', 'timur', 'meresmikan', 'salah', 'proyek', 'strategis', 'nasional', 'yait']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['selamat', 'pagi', 'tolak', 'jawa', 'timur', 'resmi', 'salah', 'proyek', 'strategis', 'nasional', 'yait']</t>
         </is>
       </c>
     </row>
@@ -3175,34 +3555,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>21545</v>
+        <v>31316</v>
       </c>
       <c r="C77" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t xml:space="preserve">vaksinasi covid sudah kita mulai di luar itu yang paling penting adalah tetap disiplin menjalankan protokol </t>
+          <t>lebih satu abad lamanya bio farma menjadi saksi dan berjuang mengakhiri pandemi dari zaman ke zaman dari cacar api</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['vaksinasi', 'covid', 'sudah', 'kita', 'mulai', 'di', 'luar', 'itu', 'yang', 'paling', 'penting', 'adalah', 'tetap', 'disiplin', 'menjalankan', 'protokol']</t>
+          <t>['lebih', 'satu', 'abad', 'lamanya', 'bio', 'farma', 'menjadi', 'saksi', 'dan', 'berjuang', 'mengakhiri', 'pandemi', 'dari', 'zaman', 'ke', 'zaman', 'dari', 'cacar', 'api']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['lebih', 'satu', 'abad', 'lamanya', 'bio', 'farma', 'menjadi', 'saksi', 'dan', 'berjuang', 'mengakhiri', 'pandemi', 'dari', 'zaman', 'ke', 'zaman', 'dari', 'cacar', 'api']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['vaksinasi', 'covid', 'disiplin', 'menjalankan', 'protokol']</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['vaksinasi', 'covid', 'disiplin', 'jalan', 'protokol']</t>
+          <t>['abad', 'bio', 'farma', 'saksi', 'berjuang', 'pandemi', 'zaman', 'zaman', 'cacar', 'api']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['abad', 'bio', 'farma', 'saksi', 'juang', 'pandemi', 'zaman', 'zaman', 'cacar', 'api']</t>
         </is>
       </c>
     </row>
@@ -3211,34 +3596,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>21546</v>
+        <v>31317</v>
       </c>
       <c r="C78" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>selamat bekerja jenderal polisi listyo sigit prabowo sebagai kepala kepolisian negara republik indonesia</t>
+          <t>hari raya imlek ini kita tak leluasa untuk merayakannya dengan sukacita bersamasama tapi semua itu tak mengurangi</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['selamat', 'bekerja', 'jenderal', 'polisi', 'listyo', 'sigit', 'prabowo', 'sebagai', 'kepala', 'kepolisian', 'negara', 'republik', 'indonesia']</t>
+          <t>['hari', 'raya', 'imlek', 'ini', 'kita', 'tak', 'leluasa', 'untuk', 'merayakannya', 'dengan', 'sukacita', 'bersamasama', 'tapi', 'semua', 'itu', 'tak', 'mengurangi']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['hari', 'raya', 'imlek', 'ini', 'kita', 'tak', 'leluasa', 'untuk', 'merayakannya', 'dengan', 'sukacita', 'bersamasama', 'tapi', 'semua', 'itu', 'tak', 'mengurangi']</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['selamat', 'jenderal', 'polisi', 'listyo', 'sigit', 'prabowo', 'kepala', 'kepolisian', 'negara', 'republik', 'indonesia']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['selamat', 'jenderal', 'polisi', 'listyo', 'sigit', 'prabowo', 'kepala', 'polisi', 'negara', 'republik', 'indonesia']</t>
+          <t>['raya', 'imlek', 'leluasa', 'merayakannya', 'sukacita', 'bersamasama', 'mengurangi']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['raya', 'imlek', 'leluasa', 'raya', 'sukacita', 'bersamasama', 'kurang']</t>
         </is>
       </c>
     </row>
@@ -3247,34 +3637,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>21547</v>
+        <v>31318</v>
       </c>
       <c r="C79" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>sekarang vaksinasi sudah bisa untuk tenaga kesehatan pemerintah berusaha mencapai target vaksinasi sampai</t>
+          <t xml:space="preserve">saya membuka munas apeksi hari ini dengan pesan kepada seluruh pemerintah kota untuk memprioritaskan empat hal </t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['sekarang', 'vaksinasi', 'sudah', 'bisa', 'untuk', 'tenaga', 'kesehatan', 'pemerintah', 'berusaha', 'mencapai', 'target', 'vaksinasi', 'sampai']</t>
+          <t>['saya', 'membuka', 'munas', 'apeksi', 'hari', 'ini', 'dengan', 'pesan', 'kepada', 'seluruh', 'pemerintah', 'kota', 'untuk', 'memprioritaskan', 'empat', 'hal']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
+          <t>['saya', 'membuka', 'musyawarah, nasional', 'apeksi', 'hari', 'ini', 'dengan', 'pesan', 'kepada', 'seluruh', 'pemerintah', 'kota', 'untuk', 'memprioritaskan', 'empat', 'hal']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['vaksinasi', 'tenaga', 'kesehatan', 'pemerintah', 'berusaha', 'mencapai', 'target', 'vaksinasi']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['vaksinasi', 'tenaga', 'sehat', 'perintah', 'usaha', 'capai', 'target', 'vaksinasi']</t>
+          <t>['membuka', 'musyawarah, nasional', 'apeksi', 'pesan', 'pemerintah', 'kota', 'memprioritaskan']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['buka', 'musyawarah nasional', 'apeksi', 'pesan', 'perintah', 'kota', 'prioritas']</t>
         </is>
       </c>
     </row>
@@ -3283,34 +3678,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>21548</v>
+        <v>31319</v>
       </c>
       <c r="C80" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>sudah dua pekan kita menggelar vaksinasi massal covid hari ini sudah sekitar tenaga kesehatan yang tel</t>
+          <t>menghadapi tantangan sulit pandemi ini insan pers tetap di garis terdepan mengabarkan situasi dan jadi jembatan ko</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['sudah', 'dua', 'pekan', 'kita', 'menggelar', 'vaksinasi', 'massal', 'covid', 'hari', 'ini', 'sudah', 'sekitar', 'tenaga', 'kesehatan', 'yang', 'tel']</t>
+          <t>['menghadapi', 'tantangan', 'sulit', 'pandemi', 'ini', 'insan', 'pers', 'tetap', 'di', 'garis', 'terdepan', 'mengabarkan', 'situasi', 'dan', 'jadi', 'jembatan', 'ko']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['menghadapi', 'tantangan', 'sulit', 'pandemi', 'ini', 'insan', 'pers', 'tetap', 'di', 'garis', 'terdepan', 'mengabarkan', 'situasi', 'dan', 'jadi', 'jembatan', 'kok']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['pekan', 'menggelar', 'vaksinasi', 'massal', 'covid', 'tenaga', 'kesehatan', 'tel']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['pekan', 'gelar', 'vaksinasi', 'massal', 'covid', 'tenaga', 'sehat', 'tel']</t>
+          <t>['menghadapi', 'tantangan', 'sulit', 'pandemi', 'insan', 'pers', 'garis', 'terdepan', 'mengabarkan', 'situasi', 'jembatan']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['hadap', 'tantang', 'sulit', 'pandemi', 'insan', 'pers', 'garis', 'depan', 'abar', 'situasi', 'jembatan']</t>
         </is>
       </c>
     </row>
@@ -3319,34 +3719,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>21549</v>
+        <v>31320</v>
       </c>
       <c r="C81" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>sesuai jadwal saya menjalani vaksinasi kedua covid pagi ini meski sudah divaksinasi tetaplah mematuhi prot</t>
+          <t>pers indonesia juga terimbas pandemi tapi tetap bertanggung jawab sebagai penjernih informasi di tengah lautan ber</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['sesuai', 'jadwal', 'saya', 'menjalani', 'vaksinasi', 'kedua', 'covid', 'pagi', 'ini', 'meski', 'sudah', 'divaksinasi', 'tetaplah', 'mematuhi', 'prot']</t>
+          <t>['pers', 'indonesia', 'juga', 'terimbas', 'pandemi', 'tapi', 'tetap', 'bertanggung', 'jawab', 'sebagai', 'penjernih', 'informasi', 'di', 'tengah', 'lautan', 'ber']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['pers', 'indonesia', 'juga', 'terimbas', 'pandemi', 'tapi', 'tetap', 'bertanggung', 'jawab', 'sebagai', 'penjernih', 'informasi', 'di', 'tengah', 'lautan', 'ber']</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['sesuai', 'jadwal', 'menjalani', 'vaksinasi', 'covid', 'pagi', 'divaksinasi', 'tetaplah', 'mematuhi', 'prot']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['sesuai', 'jadwal', 'jalan', 'vaksinasi', 'covid', 'pagi', 'vaksinasi', 'tetap', 'patuh', 'prot']</t>
+          <t>['pers', 'indonesia', 'terimbas', 'pandemi', 'bertanggung', 'penjernih', 'informasi', 'lautan', 'ber']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['pers', 'indonesia', 'imbas', 'pandemi', 'tanggung', 'jernih', 'informasi', 'laut', 'ber']</t>
         </is>
       </c>
     </row>
@@ -3355,34 +3760,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>21550</v>
+        <v>31321</v>
       </c>
       <c r="C82" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>hingga saat ini km ruas jalan tol di sepanjang transsumatra telah dapat digunakan km dalam tahap konstru</t>
+          <t>setahun dalam selubung pandemi tentu ada rasa bosan lelah dan sedih kita sama merindukan suasana normal berk</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['hingga', 'saat', 'ini', 'km', 'ruas', 'jalan', 'tol', 'di', 'sepanjang', 'transsumatra', 'telah', 'dapat', 'digunakan', 'km', 'dalam', 'tahap', 'konstru']</t>
+          <t>['setahun', 'dalam', 'selubung', 'pandemi', 'tentu', 'ada', 'rasa', 'bosan', 'lelah', 'dan', 'sedih', 'kita', 'sama', 'merindukan', 'suasana', 'normal', 'berk']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['setahun', 'dalam', 'selubung', 'pandemi', 'tentu', 'ada', 'rasa', 'bosan', 'lelah', 'dan', 'sedih', 'kita', 'sama', 'merindukan', 'suasana', 'normal', 'berk']</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['km', 'ruas', 'jalan', 'tol', 'transsumatra', 'km', 'tahap', 'konstru']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['km', 'ruas', 'jalan', 'tol', 'transsumatra', 'km', 'tahap', 'konstru']</t>
+          <t>['setahun', 'selubung', 'pandemi', 'bosan', 'lelah', 'sedih', 'merindukan', 'suasana', 'normal', 'berk']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['tahun', 'selubung', 'pandemi', 'bosan', 'lelah', 'sedih', 'rindu', 'suasana', 'normal', 'berk']</t>
         </is>
       </c>
     </row>
@@ -3391,34 +3801,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>21551</v>
+        <v>31322</v>
       </c>
       <c r="C83" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>waktu tempuh dari pelabuhan bakauheni ke palembang dengan jarak km yang biasanya jam kini hanya lebih jam</t>
+          <t>penting bagi semua negara asean untuk terus menghormati prinsipprinsip piagam asean terutama prinsip rule of law</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['waktu', 'tempuh', 'dari', 'pelabuhan', 'bakauheni', 'ke', 'palembang', 'dengan', 'jarak', 'km', 'yang', 'biasanya', 'jam', 'kini', 'hanya', 'lebih', 'jam']</t>
+          <t>['penting', 'bagi', 'semua', 'negara', 'asean', 'untuk', 'terus', 'menghormati', 'prinsipprinsip', 'piagam', 'asean', 'terutama', 'prinsip', 'rule', 'of', 'law']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['penting', 'bagi', 'semua', 'negara', 'asean', 'untuk', 'terus', 'menghormati', 'prinsipprinsip', 'piagam', 'asean', 'terutama', 'prinsip', 'rule', 'of', 'law']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['tempuh', 'pelabuhan', 'bakauheni', 'palembang', 'jarak', 'km', 'jam', 'jam']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['tempuh', 'labuh', 'bakauheni', 'palembang', 'jarak', 'km', 'jam', 'jam']</t>
+          <t>['negara', 'asean', 'menghormati', 'prinsipprinsip', 'piagam', 'asean', 'prinsip', 'rule', 'of', 'law']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['negara', 'asean', 'hormat', 'prinsipprinsip', 'piagam', 'asean', 'prinsip', 'rule', 'of', 'law']</t>
         </is>
       </c>
     </row>
@@ -3427,34 +3842,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>21552</v>
+        <v>31323</v>
       </c>
       <c r="C84" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>jalan tol ruas kayu agungpalembang di sumatra selatan sepanjang km kini siap digunakan jalan tol ini adalah</t>
+          <t>saya dan pm malaysia tan sri muhyiddin yassin berharap perbedaan politik yang terjadi di myanmar dapat diselesaikan</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['jalan', 'tol', 'ruas', 'kayu', 'agungpalembang', 'di', 'sumatra', 'selatan', 'sepanjang', 'km', 'kini', 'siap', 'digunakan', 'jalan', 'tol', 'ini', 'adalah']</t>
+          <t>['saya', 'dan', 'pm', 'malaysia', 'tan', 'sri', 'muhyiddin', 'yassin', 'berharap', 'perbedaan', 'politik', 'yang', 'terjadi', 'di', 'myanmar', 'dapat', 'diselesaikan']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['saya', 'dan', 'pm', 'malaysia', 'tan', 'sri', 'muhyiddin', 'yassin', 'berharap', 'perbedaan', 'politik', 'yang', 'terjadi', 'di', 'myanmar', 'dapat', 'diselesaikan']</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['jalan', 'tol', 'ruas', 'kayu', 'agungpalembang', 'sumatra', 'selatan', 'km', 'jalan', 'tol']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['jalan', 'tol', 'ruas', 'kayu', 'agungpalembang', 'sumatra', 'selatan', 'km', 'jalan', 'tol']</t>
+          <t>['pm', 'malaysia', 'tan', 'sri', 'muhyiddin', 'yassin', 'berharap', 'perbedaan', 'politik', 'myanmar', 'diselesaikan']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['pm', 'malaysia', 'tan', 'sri', 'muhyiddin', 'yassin', 'harap', 'beda', 'politik', 'myanmar', 'selesai']</t>
         </is>
       </c>
     </row>
@@ -3463,34 +3883,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>21553</v>
+        <v>31324</v>
       </c>
       <c r="C85" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>pagi ini bersama rombongan terbatas saya bertolak menuju kota palembang untuk meresmikan jalan tol kayu agungpal</t>
+          <t>kami juga membahas mengenai isu sawit indonesia akan terus berjuang untuk melawan diskriminasi terhadap sawit dan</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['pagi', 'ini', 'bersama', 'rombongan', 'terbatas', 'saya', 'bertolak', 'menuju', 'kota', 'palembang', 'untuk', 'meresmikan', 'jalan', 'tol', 'kayu', 'agungpal']</t>
+          <t>['kami', 'juga', 'membahas', 'mengenai', 'isu', 'sawit', 'indonesia', 'akan', 'terus', 'berjuang', 'untuk', 'melawan', 'diskriminasi', 'terhadap', 'sawit', 'dan']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['kami', 'juga', 'membahas', 'mengenai', 'isu', 'sawit', 'indonesia', 'akan', 'terus', 'berjuang', 'untuk', 'melawan', 'diskriminasi', 'terhadap', 'sawit', 'dan']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['pagi', 'rombongan', 'terbatas', 'bertolak', 'kota', 'palembang', 'meresmikan', 'jalan', 'tol', 'kayu', 'agungpal']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['pagi', 'rombong', 'batas', 'tolak', 'kota', 'palembang', 'resmi', 'jalan', 'tol', 'kayu', 'agungpal']</t>
+          <t>['membahas', 'isu', 'sawit', 'indonesia', 'berjuang', 'melawan', 'diskriminasi', 'sawit']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['bahas', 'isu', 'sawit', 'indonesia', 'juang', 'lawan', 'diskriminasi', 'sawit']</t>
         </is>
       </c>
     </row>
@@ -3499,34 +3924,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>21554</v>
+        <v>31325</v>
       </c>
       <c r="C86" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>tahun adalah momentum kita untuk bangkit dan itu tergantung pada kemampuan kita melewati masamasa sulit kare</t>
+          <t>pembicaraan saya dengan pm malaysia tan sri muhyiddin yassin tadi berlangsung baik terbuka dan komprehensif kami</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['tahun', 'adalah', 'momentum', 'kita', 'untuk', 'bangkit', 'dan', 'itu', 'tergantung', 'pada', 'kemampuan', 'kita', 'melewati', 'masamasa', 'sulit', 'kare']</t>
+          <t>['pembicaraan', 'saya', 'dengan', 'pm', 'malaysia', 'tan', 'sri', 'muhyiddin', 'yassin', 'tadi', 'berlangsung', 'baik', 'terbuka', 'dan', 'komprehensif', 'kami']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['pembicaraan', 'saya', 'dengan', 'pm', 'malaysia', 'tan', 'sri', 'muhyiddin', 'yassin', 'tadi', 'berlangsung', 'baik', 'terbuka', 'dan', 'komprehensif', 'kami']</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['momentum', 'bangkit', 'tergantung', 'kemampuan', 'melewati', 'masamasa', 'sulit', 'kare']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['momentum', 'bangkit', 'gantung', 'mampu', 'lewat', 'masamasa', 'sulit', 'kare']</t>
+          <t>['pembicaraan', 'pm', 'malaysia', 'tan', 'sri', 'muhyiddin', 'yassin', 'terbuka', 'komprehensif']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['bicara', 'pm', 'malaysia', 'tan', 'sri', 'muhyiddin', 'yassin', 'buka', 'komprehensif']</t>
         </is>
       </c>
     </row>
@@ -3535,34 +3965,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>21555</v>
+        <v>31326</v>
       </c>
       <c r="C87" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>dalam jangka menengah ada industri yang bisa dikembangkan seperti pangan farmasi dan rumah sakit serta teknologi</t>
+          <t>ibadah salat jumat hari ini di masjid baiturrahim kompleks istana dihadiri perdana menteri malaysia tan sri muh</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['dalam', 'jangka', 'menengah', 'ada', 'industri', 'yang', 'bisa', 'dikembangkan', 'seperti', 'pangan', 'farmasi', 'dan', 'rumah', 'sakit', 'serta', 'teknologi']</t>
+          <t>['ibadah', 'salat', 'jumat', 'hari', 'ini', 'di', 'masjid', 'baiturrahim', 'kompleks', 'istana', 'dihadiri', 'perdana', 'menteri', 'malaysia', 'tan', 'sri', 'muh']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['ibadah', 'salat', 'jumat', 'hari', 'ini', 'di', 'masjid', 'baiturrahim', 'kompleks', 'istana', 'dihadiri', 'perdana', 'menteri', 'malaysia', 'tan', 'sri', 'muh']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['jangka', 'menengah', 'industri', 'dikembangkan', 'pangan', 'farmasi', 'rumah', 'sakit', 'teknologi']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['jangka', 'tengah', 'industri', 'kembang', 'pangan', 'farmasi', 'rumah', 'sakit', 'teknologi']</t>
+          <t>['ibadah', 'salat', 'jumat', 'masjid', 'baiturrahim', 'kompleks', 'istana', 'dihadiri', 'perdana', 'menteri', 'malaysia', 'tan', 'sri', 'muh']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['ibadah', 'salat', 'jumat', 'masjid', 'baiturrahim', 'kompleks', 'istana', 'hadir', 'perdana', 'menteri', 'malaysia', 'tan', 'sri', 'muh']</t>
         </is>
       </c>
     </row>
@@ -3571,34 +4006,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>21556</v>
+        <v>31327</v>
       </c>
       <c r="C88" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>dalam jangka pendek misalnya ada upaya berupa bantuan sosial serta bantuan bagi pelaku umkm yang akan terus dilanj</t>
+          <t>selamat datang perdana menteri malaysia tan sri muhyiddin yassin</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['dalam', 'jangka', 'pendek', 'misalnya', 'ada', 'upaya', 'berupa', 'bantuan', 'sosial', 'serta', 'bantuan', 'bagi', 'pelaku', 'umkm', 'yang', 'akan', 'terus', 'dilanj']</t>
+          <t>['selamat', 'datang', 'perdana', 'menteri', 'malaysia', 'tan', 'sri', 'muhyiddin', 'yassin']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['selamat', 'datang', 'perdana', 'menteri', 'malaysia', 'tan', 'sri', 'muhyiddin', 'yassin']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['jangka', 'pendek', 'upaya', 'bantuan', 'sosial', 'bantuan', 'pelaku', 'umkm', 'dilanj']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['jangka', 'pendek', 'upaya', 'bantu', 'sosial', 'bantu', 'laku', 'umkm', 'dilanj']</t>
+          <t>['selamat', 'perdana', 'menteri', 'malaysia', 'tan', 'sri', 'muhyiddin', 'yassin']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['selamat', 'perdana', 'menteri', 'malaysia', 'tan', 'sri', 'muhyiddin', 'yassin']</t>
         </is>
       </c>
     </row>
@@ -3607,34 +4047,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>21557</v>
+        <v>31328</v>
       </c>
       <c r="C89" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>berbicara di kompas ceo forum pagi ini saya mengajak semua pihak menggaungkan optimisme dan menjadikan seb</t>
+          <t>saya ingin ada penyempurnaan detail pelaksanaan kebijakan yang perlu diperbaiki misalnya pentingnya pembatasan ke</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['berbicara', 'di', 'kompas', 'ceo', 'forum', 'pagi', 'ini', 'saya', 'mengajak', 'semua', 'pihak', 'menggaungkan', 'optimisme', 'dan', 'menjadikan', 'seb']</t>
+          <t>['saya', 'ingin', 'ada', 'penyempurnaan', 'detail', 'pelaksanaan', 'kebijakan', 'yang', 'perlu', 'diperbaiki', 'misalnya', 'pentingnya', 'pembatasan', 'ke']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['saya', 'ingin', 'ada', 'penyempurnaan', 'detail', 'pelaksanaan', 'kebijakan', 'yang', 'perlu', 'diperbaiki', 'misalnya', 'pentingnya', 'pembatasan', 'ke']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['berbicara', 'kompas', 'ceo', 'forum', 'pagi', 'mengajak', 'menggaungkan', 'optimisme', 'menjadikan', 'seb']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['bicara', 'kompas', 'ceo', 'forum', 'pagi', 'ajak', 'gaung', 'optimisme', 'jadi', 'seb']</t>
+          <t>['penyempurnaan', 'detail', 'pelaksanaan', 'kebijakan', 'diperbaiki', 'pembatasan']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['sempurna', 'detail', 'laksana', 'bijak', 'baik', 'batas']</t>
         </is>
       </c>
     </row>
@@ -3643,34 +4088,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>21558</v>
+        <v>31329</v>
       </c>
       <c r="C90" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t xml:space="preserve">congratulations and on your inauguration as the th president and th vice president of </t>
+          <t>berbagai langkah sudah kita laksanakan untuk menekan laju penularan covid rabu kemarin saya menggelar pertem</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['congratulations', 'and', 'on', 'your', 'inauguration', 'as', 'the', 'th', 'president', 'and', 'th', 'vice', 'president', 'of']</t>
+          <t>['berbagai', 'langkah', 'sudah', 'kita', 'laksanakan', 'untuk', 'menekan', 'laju', 'penularan', 'covid', 'rabu', 'kemarin', 'saya', 'menggelar', 'pertem']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 14 outcomes&gt;</t>
+          <t>['berbagai', 'langkah', 'sudah', 'kita', 'laksanakan', 'untuk', 'menekan', 'laju', 'penularan', 'covid', 'rabu', 'kemarin', 'saya', 'menggelar', 'pertem']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['congratulations', 'and', 'on', 'your', 'inauguration', 'as', 'the', 'th', 'president', 'and', 'th', 'vice', 'president', 'of']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['congratulations', 'and', 'on', 'your', 'inauguration', 'as', 'the', 'th', 'president', 'and', 'th', 'vice', 'president', 'of']</t>
+          <t>['langkah', 'laksanakan', 'menekan', 'laju', 'penularan', 'covid', 'rabu', 'kemarin', 'menggelar', 'pertem']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['langkah', 'laksana', 'tekan', 'laju', 'tular', 'covid', 'rabu', 'kemarin', 'gelar', 'tem']</t>
         </is>
       </c>
     </row>
@@ -3679,34 +4129,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>21559</v>
+        <v>31330</v>
       </c>
       <c r="C91" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>terakhir saya meminta agar ada tindak lanjut baik dari knkt maupun kementerian perhubungan untuk melakukan pemer</t>
+          <t>suasana pelaksanaan vaksinasi massal covid untuk para tenaga kesehatan di istora senayan jakarta hari ini</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['terakhir', 'saya', 'meminta', 'agar', 'ada', 'tindak', 'lanjut', 'baik', 'dari', 'knkt', 'maupun', 'kementerian', 'perhubungan', 'untuk', 'melakukan', 'pemer']</t>
+          <t>['suasana', 'pelaksanaan', 'vaksinasi', 'massal', 'covid', 'untuk', 'para', 'tenaga', 'kesehatan', 'di', 'istora', 'senayan', 'jakarta', 'hari', 'ini']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['suasana', 'pelaksanaan', 'vaksinasi', 'massal', 'covid', 'untuk', 'para', 'tenaga', 'kesehatan', 'di', 'istora', 'senayan', 'jakarta', 'hari', 'ini']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['tindak', 'knkt', 'kementerian', 'perhubungan', 'pemer']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['tindak', 'knkt', 'menteri', 'hubung', 'per']</t>
+          <t>['suasana', 'pelaksanaan', 'vaksinasi', 'massal', 'covid', 'tenaga', 'kesehatan', 'istora', 'senayan', 'jakarta']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['suasana', 'laksana', 'vaksinasi', 'massal', 'covid', 'tenaga', 'sehat', 'istora', 'senayan', 'jakarta']</t>
         </is>
       </c>
     </row>
@@ -3715,34 +4170,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>21560</v>
+        <v>31331</v>
       </c>
       <c r="C92" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t xml:space="preserve">sekali lagi saya menyampaikan dukacita yang mendalam kepada seluruh keluarga korban semoga diberikan keikhlasan </t>
+          <t>saya menerima surat kepercayaan dari tujuh duta besar luar biasa dan berkuasa penuh dari negara sahabat hari ini di</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['sekali', 'lagi', 'saya', 'menyampaikan', 'dukacita', 'yang', 'mendalam', 'kepada', 'seluruh', 'keluarga', 'korban', 'semoga', 'diberikan', 'keikhlasan']</t>
+          <t>['saya', 'menerima', 'surat', 'kepercayaan', 'dari', 'tujuh', 'duta', 'besar', 'luar', 'biasa', 'dan', 'berkuasa', 'penuh', 'dari', 'negara', 'sahabat', 'hari', 'ini', 'di']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['saya', 'menerima', 'surat', 'kepercayaan', 'dari', 'tujuh', 'duta', 'besar', 'luar', 'biasa', 'dan', 'berkuasa', 'penuh', 'dari', 'negara', 'sahabat', 'hari', 'ini', 'di']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['dukacita', 'mendalam', 'keluarga', 'korban', 'semoga', 'keikhlasan']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['dukacita', 'dalam', 'keluarga', 'korban', 'moga', 'ikhlas']</t>
+          <t>['menerima', 'surat', 'kepercayaan', 'tujuh', 'duta', 'berkuasa', 'penuh', 'negara', 'sahabat']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['terima', 'surat', 'percaya', 'tujuh', 'duta', 'kuasa', 'penuh', 'negara', 'sahabat']</t>
         </is>
       </c>
     </row>
@@ -3751,34 +4211,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>21561</v>
+        <v>31332</v>
       </c>
       <c r="C93" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>serpihanserpihan badan pesawat sriwijaya air sj masih terhampar di pelataran posko evakuasi di kawasan pelabuh</t>
+          <t>kawasan mandalika di lombok kian menggeliat maju setelah jadi kawasan ekonomi khusus dan lokasi pembangunan sirk</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['serpihanserpihan', 'badan', 'pesawat', 'sriwijaya', 'air', 'sj', 'masih', 'terhampar', 'di', 'pelataran', 'posko', 'evakuasi', 'di', 'kawasan', 'pelabuh']</t>
+          <t>['kawasan', 'mandalika', 'di', 'lombok', 'kian', 'menggeliat', 'maju', 'setelah', 'jadi', 'kawasan', 'ekonomi', 'khusus', 'dan', 'lokasi', 'pembangunan', 'sirk']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['kawasan', 'mandalika', 'di', 'lombok', 'kian', 'menggeliat', 'maju', 'setelah', 'jadi', 'kawasan', 'ekonomi', 'khusus', 'dan', 'lokasi', 'pembangunan', 'sirk']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['serpihanserpihan', 'badan', 'pesawat', 'sriwijaya', 'air', 'sj', 'terhampar', 'pelataran', 'posko', 'evakuasi', 'kawasan', 'pelabuh']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['serpihanserpihan', 'badan', 'pesawat', 'sriwijaya', 'air', 'sj', 'hampar', 'latar', 'posko', 'evakuasi', 'kawasan', 'labuh']</t>
+          <t>['kawasan', 'mandalika', 'lombok', 'kian', 'menggeliat', 'maju', 'kawasan', 'ekonomi', 'khusus', 'lokasi', 'pembangunan', 'sirk']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['kawasan', 'mandalika', 'lombok', 'kian', 'geliat', 'maju', 'kawasan', 'ekonomi', 'khusus', 'lokasi', 'bangun', 'sirk']</t>
         </is>
       </c>
     </row>
@@ -3787,34 +4252,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>21562</v>
+        <v>31333</v>
       </c>
       <c r="C94" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>berbincang dengan sdr taufik di atas reruntuhan rumahnya di mamuju sulbar yang rusak oleh gempa bumi jumat lalu</t>
+          <t>hari ini bahan baku vaksin sebanyak juta dosis kembali tiba di indonesia sebelumnya sudah tiba tiga juta dos</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['berbincang', 'dengan', 'sdr', 'taufik', 'di', 'atas', 'reruntuhan', 'rumahnya', 'di', 'mamuju', 'sulbar', 'yang', 'rusak', 'oleh', 'gempa', 'bumi', 'jumat', 'lalu']</t>
+          <t>['hari', 'ini', 'bahan', 'baku', 'vaksin', 'sebanyak', 'juta', 'dosis', 'kembali', 'tiba', 'di', 'indonesia', 'sebelumnya', 'sudah', 'tiba', 'tiga', 'juta', 'dos']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['hari', 'ini', 'bahan', 'baku', 'vaksin', 'sebanyak', 'juta', 'dosis', 'kembali', 'tiba', 'di', 'indonesia', 'sebelumnya', 'sudah', 'tiba', 'tiga', 'juta', 'dos']</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['berbincang', 'sdr', 'taufik', 'reruntuhan', 'rumahnya', 'mamuju', 'sulbar', 'rusak', 'gempa', 'bumi', 'jumat']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['bincang', 'sdr', 'taufik', 'runtuh', 'rumah', 'mamuju', 'sulbar', 'rusak', 'gempa', 'bumi', 'jumat']</t>
+          <t>['bahan', 'baku', 'vaksin', 'juta', 'dosis', 'indonesia', 'juta', 'dos']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['bahan', 'baku', 'vaksin', 'juta', 'dosis', 'indonesia', 'juta', 'dos']</t>
         </is>
       </c>
     </row>
@@ -3823,34 +4293,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>21563</v>
+        <v>31334</v>
       </c>
       <c r="C95" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>saya pun sudah menyaksikan sendiri dampak besar gempa berkekuatan magnitudo itu pemerintah pusat akan memban</t>
+          <t>beginilah suasana pelaksanaan vaksinasi massal covid untuk tenaga kesehatan di kampus ugm yogyakarta pekan lalu</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['saya', 'pun', 'sudah', 'menyaksikan', 'sendiri', 'dampak', 'besar', 'gempa', 'berkekuatan', 'magnitudo', 'itu', 'pemerintah', 'pusat', 'akan', 'memban']</t>
+          <t>['beginilah', 'suasana', 'pelaksanaan', 'vaksinasi', 'massal', 'covid', 'untuk', 'tenaga', 'kesehatan', 'di', 'kampus', 'ugm', 'yogyakarta', 'pekan', 'lalu']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
+          <t>['beginilah', 'suasana', 'pelaksanaan', 'vaksinasi', 'massal', 'covid', 'untuk', 'tenaga', 'kesehatan', 'di', 'kampus', 'ugm', 'yogyakarta', 'pekan', 'lalu']</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>['menyaksikan', 'dampak', 'gempa', 'berkekuatan', 'magnitudo', 'pemerintah', 'pusat', 'memban']</t>
-        </is>
-      </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['saksi', 'dampak', 'gempa', 'kuat', 'magnitudo', 'perintah', 'pusat', 'ban']</t>
+          <t>['suasana', 'pelaksanaan', 'vaksinasi', 'massal', 'covid', 'tenaga', 'kesehatan', 'kampus', 'ugm', 'yogyakarta', 'pekan']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['suasana', 'laksana', 'vaksinasi', 'massal', 'covid', 'tenaga', 'sehat', 'kampus', 'ugm', 'yogyakarta', 'pekan']</t>
         </is>
       </c>
     </row>
@@ -3859,34 +4334,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>21564</v>
+        <v>31335</v>
       </c>
       <c r="C96" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>stadion manakarra di mamuju dialihfungsikan sebagai tempat pengungsian bagi warga terdampak bencana gempa di sulbar</t>
+          <t>bsi saya harapkan mampu memaksimalkan penggunaan teknologi digital menarik minat generasi muda untuk menjadi nasab</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['stadion', 'manakarra', 'di', 'mamuju', 'dialihfungsikan', 'sebagai', 'tempat', 'pengungsian', 'bagi', 'warga', 'terdampak', 'bencana', 'gempa', 'di', 'sulbar']</t>
+          <t>['bsi', 'saya', 'harapkan', 'mampu', 'memaksimalkan', 'penggunaan', 'teknologi', 'digital', 'menarik', 'minat', 'generasi', 'muda', 'untuk', 'menjadi', 'nasab']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['bsi', 'saya', 'harapkan', 'mampu', 'memaksimalkan', 'penggunaan', 'teknologi', 'digital', 'menarik', 'minat', 'generasi', 'muda', 'untuk', 'menjadi', 'nasab']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['stadion', 'manakarra', 'mamuju', 'dialihfungsikan', 'pengungsian', 'warga', 'terdampak', 'bencana', 'gempa', 'sulbar']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['stadion', 'manakarra', 'mamuju', 'dialihfungsikan', 'ungsi', 'warga', 'dampak', 'bencana', 'gempa', 'sulbar']</t>
+          <t>['bsi', 'harapkan', 'memaksimalkan', 'penggunaan', 'teknologi', 'digital', 'menarik', 'minat', 'generasi', 'muda', 'nasab']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['bsi', 'harap', 'maksimal', 'guna', 'teknologi', 'digital', 'tarik', 'minat', 'generasi', 'muda', 'nasab']</t>
         </is>
       </c>
     </row>
@@ -3895,34 +4375,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>21565</v>
+        <v>31336</v>
       </c>
       <c r="C97" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>sebagian bangunan kantor gubernur sulawesi barat di mamuju yang rusak setelah diguncang gempa januari lalu pe</t>
+          <t xml:space="preserve">bank syariah indonesia saya resmikan hari ini sebagai penggabungan tiga bank syariah himpunan bank milik negara </t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['sebagian', 'bangunan', 'kantor', 'gubernur', 'sulawesi', 'barat', 'di', 'mamuju', 'yang', 'rusak', 'setelah', 'diguncang', 'gempa', 'januari', 'lalu', 'pe']</t>
+          <t>['bank', 'syariah', 'indonesia', 'saya', 'resmikan', 'hari', 'ini', 'sebagai', 'penggabungan', 'tiga', 'bank', 'syariah', 'himpunan', 'bank', 'milik', 'negara']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['bank', 'syariat', 'indonesia', 'saya', 'resmikan', 'hari', 'ini', 'sebagai', 'penggabungan', 'tiga', 'bank', 'syariat', 'himpunan', 'bank', 'milik', 'negara']</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['bangunan', 'kantor', 'gubernur', 'sulawesi', 'barat', 'mamuju', 'rusak', 'diguncang', 'gempa', 'januari', 'pe']</t>
+          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['bangun', 'kantor', 'gubernur', 'sulawesi', 'barat', 'mamuju', 'rusak', 'guncang', 'gempa', 'januari', 'pe']</t>
+          <t>['bank', 'syariat', 'indonesia', 'resmikan', 'penggabungan', 'bank', 'syariat', 'himpunan', 'bank', 'milik', 'negara']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['bank', 'syariat', 'indonesia', 'resmi', 'gabung', 'bank', 'syariat', 'himpun', 'bank', 'milik', 'negara']</t>
         </is>
       </c>
     </row>
@@ -3931,34 +4416,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>21566</v>
+        <v>31337</v>
       </c>
       <c r="C98" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>saya bertolak dari pangkalan tni au halim perdanakusuma pagi ini menuju sulawesi barat yang diguncang gempa bumi be</t>
+          <t>kebijakan pembatasan kegiatan masyarakat di tengah pandemi sudah berjalan hampir sebulan hasilnya belum sejalan de</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['saya', 'bertolak', 'dari', 'pangkalan', 'tni', 'au', 'halim', 'perdanakusuma', 'pagi', 'ini', 'menuju', 'sulawesi', 'barat', 'yang', 'diguncang', 'gempa', 'bumi', 'be']</t>
+          <t>['kebijakan', 'pembatasan', 'kegiatan', 'masyarakat', 'di', 'tengah', 'pandemi', 'sudah', 'berjalan', 'hampir', 'sebulan', 'hasilnya', 'belum', 'sejalan', 'de']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['kebijakan', 'pembatasan', 'kegiatan', 'masyarakat', 'di', 'tengah', 'pandemi', 'sudah', 'berjalan', 'hampir', 'sebulan', 'hasilnya', 'belum', 'sejalan', 'deh']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['bertolak', 'pangkalan', 'tni', 'au', 'halim', 'perdanakusuma', 'pagi', 'sulawesi', 'barat', 'diguncang', 'gempa', 'bumi', 'be']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['tolak', 'pangkal', 'tni', 'au', 'halim', 'perdanakusuma', 'pagi', 'sulawesi', 'barat', 'guncang', 'gempa', 'bumi', 'be']</t>
+          <t>['kebijakan', 'pembatasan', 'kegiatan', 'masyarakat', 'pandemi', 'berjalan', 'sebulan', 'hasilnya', 'sejalan', 'deh']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['bijak', 'batas', 'giat', 'masyarakat', 'pandemi', 'jalan', 'bulan', 'hasil', 'jalan', 'deh']</t>
         </is>
       </c>
     </row>
@@ -3967,34 +4457,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>21567</v>
+        <v>31338</v>
       </c>
       <c r="C99" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>saya telah memerintahkan kepada menteri pupr untuk memperbaiki beberapa jembatan yang runtuh dalam beberapa hari in</t>
+          <t>di usia tahun nahdlatul ulama tetap berperan besar mencerdaskan kehidupan bangsa menggerakkan semangat nasiona</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['saya', 'telah', 'memerintahkan', 'kepada', 'menteri', 'pupr', 'untuk', 'memperbaiki', 'beberapa', 'jembatan', 'yang', 'runtuh', 'dalam', 'beberapa', 'hari', 'in']</t>
+          <t>['di', 'usia', 'tahun', 'nahdlatul', 'ulama', 'tetap', 'berperan', 'besar', 'mencerdaskan', 'kehidupan', 'bangsa', 'menggerakkan', 'semangat', 'nasiona']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['di', 'usia', 'tahun', 'nahdlatul', 'ulama', 'tetap', 'berperan', 'besar', 'mencerdaskan', 'kehidupan', 'bangsa', 'menggerakkan', 'semangat', 'nasiona']</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['memerintahkan', 'menteri', 'pupr', 'memperbaiki', 'jembatan', 'runtuh', 'in']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['perintah', 'menteri', 'pupr', 'baik', 'jembatan', 'runtuh', 'in']</t>
+          <t>['usia', 'nahdlatul', 'ulama', 'berperan', 'mencerdaskan', 'kehidupan', 'bangsa', 'menggerakkan', 'semangat', 'nasiona']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['usia', 'nahdlatul', 'ulama', 'peran', 'cerdas', 'hidup', 'bangsa', 'gerak', 'semangat', 'nasiona']</t>
         </is>
       </c>
     </row>
@@ -4003,34 +4498,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>21568</v>
+        <v>31339</v>
       </c>
       <c r="C100" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>saya sudah melihat langsung dampak banjir di sejumlah tempat di kalsel sejumlah sarana penghubung rusak salah sat</t>
+          <t xml:space="preserve">vaksinasi covid sudah kita mulai di luar itu yang paling penting adalah tetap disiplin menjalankan protokol </t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['saya', 'sudah', 'melihat', 'langsung', 'dampak', 'banjir', 'di', 'sejumlah', 'tempat', 'di', 'kalsel', 'sejumlah', 'sarana', 'penghubung', 'rusak', 'salah', 'sat']</t>
+          <t>['vaksinasi', 'covid', 'sudah', 'kita', 'mulai', 'di', 'luar', 'itu', 'yang', 'paling', 'penting', 'adalah', 'tetap', 'disiplin', 'menjalankan', 'protokol']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['vaksinasi', 'covid', 'sudah', 'kita', 'mulai', 'di', 'luar', 'itu', 'yang', 'paling', 'penting', 'adalah', 'tetap', 'disiplin', 'menjalankan', 'protokol']</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['langsung', 'dampak', 'banjir', 'kalsel', 'sarana', 'penghubung', 'rusak', 'salah', 'sat']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['langsung', 'dampak', 'banjir', 'kalsel', 'sarana', 'hubung', 'rusak', 'salah', 'sat']</t>
+          <t>['vaksinasi', 'covid', 'disiplin', 'menjalankan', 'protokol']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['vaksinasi', 'covid', 'disiplin', 'jalan', 'protokol']</t>
         </is>
       </c>
     </row>
@@ -4039,34 +4539,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>21569</v>
+        <v>31340</v>
       </c>
       <c r="C101" t="n">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>hujan masih turun di kab banjar ketika saya tiba di jembatan pakauman di bawahnya sungai martapura terlihat masi</t>
+          <t>selamat bekerja jenderal polisi listyo sigit prabowo sebagai kepala kepolisian negara republik indonesia</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['hujan', 'masih', 'turun', 'di', 'kab', 'banjar', 'ketika', 'saya', 'tiba', 'di', 'jembatan', 'pakauman', 'di', 'bawahnya', 'sungai', 'martapura', 'terlihat', 'masi']</t>
+          <t>['selamat', 'bekerja', 'jenderal', 'polisi', 'listyo', 'sigit', 'prabowo', 'sebagai', 'kepala', 'kepolisian', 'negara', 'republik', 'indonesia']</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['selamat', 'bekerja', 'jenderal', 'polisi', 'listyo', 'sigit', 'prabowo', 'sebagai', 'kepala', 'kepolisian', 'negara', 'republik', 'indonesia']</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>['hujan', 'turun', 'kab', 'banjar', 'jembatan', 'pakauman', 'bawahnya', 'sungai', 'martapura', 'masi']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['hujan', 'turun', 'kab', 'banjar', 'jembatan', 'pakauman', 'bawah', 'sungai', 'martapura', 'mas']</t>
+          <t>['selamat', 'jenderal', 'polisi', 'listyo', 'sigit', 'prabowo', 'kepala', 'kepolisian', 'negara', 'republik', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['selamat', 'jenderal', 'polisi', 'listyo', 'sigit', 'prabowo', 'kepala', 'polisi', 'negara', 'republik', 'indonesia']</t>
         </is>
       </c>
     </row>
